--- a/cloud_afwk.xlsx
+++ b/cloud_afwk.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\workfile\SCFTECH\03发布管理\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="demo" sheetId="2" r:id="rId1"/>
@@ -30,16 +25,11 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT">REPT(local_year_format,4)&amp;local_date_separator&amp;REPT(local_month_format,2)&amp;local_date_separator&amp;REPT(local_day_format,2)&amp;" "&amp;REPT(local_hour_format,2)&amp;local_time_separator&amp;REPT(local_minute_format,2)&amp;local_time_separator&amp;REPT(local_second_format,2)</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367">
   <si>
     <t>日期</t>
   </si>
@@ -149,6 +139,72 @@
     <t>资料库材料类型</t>
   </si>
   <si>
+    <t>CREDIT_DOC_STATUS</t>
+  </si>
+  <si>
+    <t>征信单据保存</t>
+  </si>
+  <si>
+    <t>CREDIT_PUBLIC_OPINION_EVENT</t>
+  </si>
+  <si>
+    <t>征信舆情事件类型</t>
+  </si>
+  <si>
+    <t>ENDORSEMENT_STATUS</t>
+  </si>
+  <si>
+    <t>票据背书状态</t>
+  </si>
+  <si>
+    <t>FUND_BILL_DISCOUNT_STATUS</t>
+  </si>
+  <si>
+    <t>票据贴现状态</t>
+  </si>
+  <si>
+    <t>FUND_DRAFT_FORM</t>
+  </si>
+  <si>
+    <t>票据形式</t>
+  </si>
+  <si>
+    <t>FUND_DRAFT_TYPE</t>
+  </si>
+  <si>
+    <t>票据类型</t>
+  </si>
+  <si>
+    <t>FUND_DRAFT_STATUS</t>
+  </si>
+  <si>
+    <t>票据状态</t>
+  </si>
+  <si>
+    <t>FUND_BILL_BUSINESS_STATUS</t>
+  </si>
+  <si>
+    <t>票据业务状态</t>
+  </si>
+  <si>
+    <t>FUND_BILL_DISCOUNT_METHOD</t>
+  </si>
+  <si>
+    <t>票据贴现方式</t>
+  </si>
+  <si>
+    <t>FUND_BILL_WECHAT_NOTICE</t>
+  </si>
+  <si>
+    <t>票据微信通知消息</t>
+  </si>
+  <si>
+    <t>BANK_CREDIT_LEVEL</t>
+  </si>
+  <si>
+    <t>银行信用评级</t>
+  </si>
+  <si>
     <t>sys_lookup_value</t>
   </si>
   <si>
@@ -218,324 +274,105 @@
     <t>已撤回</t>
   </si>
   <si>
-    <t>sys_menu</t>
-  </si>
-  <si>
-    <t>#menu_code</t>
-  </si>
-  <si>
-    <t>menu_type</t>
-  </si>
-  <si>
-    <t>resource_group_id</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>menu_route</t>
-  </si>
-  <si>
-    <t>user_menu_name</t>
-  </si>
-  <si>
-    <t>sys_document_rule</t>
-  </si>
-  <si>
-    <t>doc_rule_name</t>
-  </si>
-  <si>
-    <t>#doc_rule_code</t>
-  </si>
-  <si>
-    <t>prefix</t>
-  </si>
-  <si>
-    <t>prefix_flag(BIGINT)</t>
-  </si>
-  <si>
-    <t>connector</t>
-  </si>
-  <si>
-    <t>cycle_type</t>
-  </si>
-  <si>
-    <t>cycle_flag(BIGINT)</t>
-  </si>
-  <si>
-    <t>length(BIGINT)</t>
-  </si>
-  <si>
-    <t>initial_value</t>
-  </si>
-  <si>
-    <t>sys_document_squence</t>
-  </si>
-  <si>
-    <t>type_name</t>
-  </si>
-  <si>
-    <t>#type_code</t>
-  </si>
-  <si>
-    <t>cycle_prefix</t>
-  </si>
-  <si>
-    <t>cycle_enable</t>
-  </si>
-  <si>
-    <t>prefix_enable</t>
-  </si>
-  <si>
-    <t>connectors</t>
-  </si>
-  <si>
-    <t>sequence_type</t>
-  </si>
-  <si>
-    <t>sequence_length(INT)</t>
-  </si>
-  <si>
-    <t>sequence_start(INT)</t>
-  </si>
-  <si>
-    <t>sequence_next(INT)</t>
-  </si>
-  <si>
-    <t>sys_operate</t>
-  </si>
-  <si>
-    <t>#operate_fields</t>
-  </si>
-  <si>
-    <t>operate_type</t>
-  </si>
-  <si>
-    <t>enable_flag(INT)</t>
-  </si>
-  <si>
-    <t>sys_message</t>
-  </si>
-  <si>
-    <t>*message_id</t>
-  </si>
-  <si>
-    <t>#message_code</t>
-  </si>
-  <si>
-    <t>message_desc</t>
-  </si>
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>FUND1345</t>
-  </si>
-  <si>
-    <t>租户配置信息不存在 [%s]</t>
-  </si>
-  <si>
-    <t>FUND</t>
-  </si>
-  <si>
-    <t>2aa6b208131141a48ff2e04ab9f3efb6</t>
-  </si>
-  <si>
-    <t>AFWK1160</t>
-  </si>
-  <si>
-    <t>角色已存在</t>
-  </si>
-  <si>
-    <t>AFWK</t>
-  </si>
-  <si>
-    <t>AFWK1161</t>
-  </si>
-  <si>
-    <t>系统中不存在该记录</t>
-  </si>
-  <si>
-    <t>AFWK1162</t>
-  </si>
-  <si>
-    <t>不能给本身角色授权</t>
-  </si>
-  <si>
-    <t>AFWK1163</t>
-  </si>
-  <si>
-    <t>当前角色已经授权给其他角色,请去掉被授予的角色或手工添加逐一所需角色</t>
-  </si>
-  <si>
-    <t>ESM0015</t>
-  </si>
-  <si>
-    <t>此用户还未提交开户申请:[id = %s]</t>
-  </si>
-  <si>
-    <t>ESM</t>
-  </si>
-  <si>
-    <t>ESM0016</t>
-  </si>
-  <si>
-    <t>当前用户不是已申请状态，不能进行撤回</t>
-  </si>
-  <si>
-    <t>FUND1543</t>
-  </si>
-  <si>
-    <t>合同没有维护账户[%s]</t>
-  </si>
-  <si>
-    <t>该组织已存在征信贷款信息</t>
-  </si>
-  <si>
-    <t>ANALYSE2002</t>
-  </si>
-  <si>
-    <t>[%s]</t>
-  </si>
-  <si>
-    <t>ANALYSE2003</t>
-  </si>
-  <si>
-    <t>没有回调的该状态[%s]</t>
-  </si>
-  <si>
-    <t>ANALYSE2004</t>
-  </si>
-  <si>
-    <t>该状态[%s]不可编辑</t>
-  </si>
-  <si>
-    <t>ANALYSE2005</t>
-  </si>
-  <si>
-    <t>该状态[%s]下不能提交工作流</t>
-  </si>
-  <si>
-    <t>ANALYSE2006</t>
-  </si>
-  <si>
-    <t>统计日期不能为空</t>
-  </si>
-  <si>
-    <t>ANALYSE1010</t>
-  </si>
-  <si>
-    <t>文件上传失败：[%s]</t>
-  </si>
-  <si>
-    <t>ANALYSE1011</t>
-  </si>
-  <si>
-    <t>转让时间起不能早于转让时间至</t>
-  </si>
-  <si>
-    <t>ANALYSE1012</t>
-  </si>
-  <si>
-    <t>当前状态:[%s],不能更新</t>
-  </si>
-  <si>
-    <t>ANALYSE1013</t>
-  </si>
-  <si>
-    <t>财务信息不存在</t>
-  </si>
-  <si>
-    <t>ANALYSE3001</t>
-  </si>
-  <si>
-    <t>银行征信息不存在</t>
-  </si>
-  <si>
-    <t>ANALYSE2001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ANALYSE</t>
-  </si>
-  <si>
-    <t>CREDIT_DOC_STATUS</t>
-  </si>
-  <si>
-    <t>征信单据保存</t>
-  </si>
-  <si>
     <t>已保存</t>
   </si>
   <si>
-    <t>CREDIT_PUBLIC_OPINION_EVENT</t>
-  </si>
-  <si>
-    <t>征信舆情事件类型</t>
+    <t>BORROWING_DISPUTE</t>
+  </si>
+  <si>
+    <t>借贷纠纷</t>
   </si>
   <si>
     <t>BUSINESS_CONTRACT_DISPUTE</t>
   </si>
   <si>
+    <t>买卖合同纠纷</t>
+  </si>
+  <si>
     <t>LABOR_CONTRACT_DISPUTE</t>
   </si>
   <si>
+    <t>劳动合同纠纷</t>
+  </si>
+  <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>借贷纠纷</t>
-  </si>
-  <si>
-    <t>买卖合同纠纷</t>
-  </si>
-  <si>
-    <t>劳动合同纠纷</t>
-  </si>
-  <si>
     <t>其它</t>
   </si>
   <si>
-    <t>BORROWING_DISPUTE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREDIT_DOC_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENDORSEMENT_STATUS</t>
-  </si>
-  <si>
-    <t>ENDORSEMENT_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据背书状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据背书状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>ENDORSEMENT_CANCEL</t>
+  </si>
+  <si>
+    <t>已撤销</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已撤销</t>
+    </r>
   </si>
   <si>
     <t>ENDORSEMENT_CONFIRMED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENDORSEMENT_CANCEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认背书</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>确认背书</t>
+    </r>
   </si>
   <si>
     <t>ENDORSEMENT_ENDORSED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已背书</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已背书</t>
+    </r>
   </si>
   <si>
     <t>ENDORSEMENT_SUBMIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交背书</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交背书</t>
+    </r>
   </si>
   <si>
     <t>WAITING_UPLOAD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>待上传附件</t>
   </si>
   <si>
     <r>
@@ -545,13 +382,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已撤销</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>待上传附件</t>
+    </r>
+  </si>
+  <si>
+    <t>DISCOUNT_APPROVED</t>
+  </si>
+  <si>
+    <t>确认贴现</t>
   </si>
   <si>
     <r>
@@ -561,9 +399,11 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>确认背书</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>确认贴现</t>
+    </r>
+  </si>
+  <si>
+    <t>DISCOUNT_CANCEL</t>
   </si>
   <si>
     <r>
@@ -573,13 +413,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已背书</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>已撤回</t>
+    </r>
+  </si>
+  <si>
+    <t>DISCOUNT_FINISHED</t>
+  </si>
+  <si>
+    <t>已完成</t>
   </si>
   <si>
     <r>
@@ -589,9 +430,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>提交背书</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>已完成</t>
+    </r>
+  </si>
+  <si>
+    <t>DISCOUNT_SUBMIT</t>
+  </si>
+  <si>
+    <t>提交贴现</t>
   </si>
   <si>
     <r>
@@ -601,64 +447,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>待上传附件</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已撤销</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待上传附件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_DISCOUNT_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据贴现状态</t>
-  </si>
-  <si>
-    <t>票据贴现状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNT_APPROVED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_DISCOUNT_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNT_CANCEL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNT_FINISHED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNT_SUBMIT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>提交贴现</t>
+    </r>
+  </si>
+  <si>
+    <t>ECTRONIC_BILL</t>
+  </si>
+  <si>
+    <t>电子票据</t>
   </si>
   <si>
     <r>
@@ -668,13 +464,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>确认贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已撤回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>电子票据</t>
+    </r>
+  </si>
+  <si>
+    <t>PAPER_BILL</t>
+  </si>
+  <si>
+    <t>纸质票据</t>
   </si>
   <si>
     <r>
@@ -684,13 +481,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已撤回</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>纸质票据</t>
+    </r>
+  </si>
+  <si>
+    <t>BANK_DRAFTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">银行承兑汇票 </t>
   </si>
   <si>
     <r>
@@ -700,16 +498,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已完成</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>提交贴现</t>
-  </si>
-  <si>
-    <t>提交贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>银行承兑汇票</t>
+    </r>
+  </si>
+  <si>
+    <t>COMMERCIAL_DRAFTS</t>
+  </si>
+  <si>
+    <t>商业承兑汇票</t>
   </si>
   <si>
     <r>
@@ -719,89 +515,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>提交贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>待上传附件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_DRAFT_FORM</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据形式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据形式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_DRAFT_TYPE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_DRAFT_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_BUSINESS_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据业务状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据业务状态</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_DISCOUNT_METHOD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据贴现方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_WECHAT_NOTICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据微信通知消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据微信通知消息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ECTRONIC_BILL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAPER_BILL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子票据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>商业承兑汇票</t>
+    </r>
+  </si>
+  <si>
+    <t>DISCOUNTED</t>
+  </si>
+  <si>
+    <t>已贴现</t>
   </si>
   <si>
     <r>
@@ -811,13 +532,17 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>电子票据</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸质票据</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>已贴现</t>
+    </r>
+  </si>
+  <si>
+    <t>ENDORSED</t>
+  </si>
+  <si>
+    <t>EXPIRED_COLLECTION</t>
+  </si>
+  <si>
+    <t>到期托收</t>
   </si>
   <si>
     <r>
@@ -827,21 +552,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>纸质票据</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_DRAFT_TYPE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANK_DRAFTS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">银行承兑汇票 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>到期托收</t>
+    </r>
+  </si>
+  <si>
+    <t>SETTLED</t>
+  </si>
+  <si>
+    <t>已结清</t>
   </si>
   <si>
     <r>
@@ -851,17 +569,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>银行承兑汇票</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMERCIAL_DRAFTS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商业承兑汇票</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>已结清</t>
+    </r>
+  </si>
+  <si>
+    <t>SIGNED</t>
+  </si>
+  <si>
+    <t>已签收</t>
   </si>
   <si>
     <r>
@@ -871,36 +586,32 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>商业承兑汇票</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNTED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ENDORSED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXPIRED_COLLECTION</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SETTLED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SIGNED</t>
+      <t>已签收</t>
+    </r>
   </si>
   <si>
     <t>SUBMIT_DISCOUNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSINESS_DISCOUNTED</t>
+  </si>
+  <si>
+    <t>BUSINESS_ENDORSED</t>
+  </si>
+  <si>
+    <t>BUSINESS_SIGNED</t>
+  </si>
+  <si>
+    <t>DISCOUNT_CONFIRMED</t>
+  </si>
+  <si>
+    <t>SUBMIT_ENDORSEMENT</t>
+  </si>
+  <si>
+    <t>BANK_DISCOUNT</t>
+  </si>
+  <si>
+    <t>银行贴现</t>
   </si>
   <si>
     <r>
@@ -910,13 +621,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>银行贴现</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_DISCOUNT</t>
+  </si>
+  <si>
+    <t>业务贴现</t>
   </si>
   <si>
     <r>
@@ -926,13 +638,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已背书</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>到期托收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>业务贴现</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_BILL_CONFIRM_FOOT</t>
+  </si>
+  <si>
+    <t>您可以进行后续的回款确认并操作还款与资金拨付</t>
   </si>
   <si>
     <r>
@@ -942,15 +655,17 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>到期托收</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已结清</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>供应商上传附件后，变更票据状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="13"/>
@@ -958,13 +673,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已结清</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已签收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>通知经办脚部信息</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_BILL_CONFIRM_TITLE</t>
+  </si>
+  <si>
+    <t>尊敬的userName，您好\n供应商已上传附件\n</t>
   </si>
   <si>
     <r>
@@ -974,11 +690,17 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>已签收</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
+      <t>供应商上传附件后，变更票据状态</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
     <r>
       <rPr>
         <sz val="13"/>
@@ -986,49 +708,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>提交贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_BUSINESS_STATUS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_DISCOUNTED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_ENDORSED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_SIGNED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DISCOUNT_CONFIRMED</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUBMIT_ENDORSEMENT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已签收</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>通知经办</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_BILL_EXPIRE</t>
+  </si>
+  <si>
+    <t>尊敬的userName，您好\n有票据即将到期</t>
   </si>
   <si>
     <r>
@@ -1038,25 +725,14 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>提交贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_DISCOUNT_METHOD</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BANK_DISCOUNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_DISCOUNT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>票据到期向经办发出通知</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_BILL_EXPIRE_FOOT</t>
+  </si>
+  <si>
+    <t>请确认票据后续处理状态。</t>
   </si>
   <si>
     <r>
@@ -1066,13 +742,26 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>银行贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>票据到期向经办发出通知脚部信息</t>
+    </r>
+  </si>
+  <si>
+    <t>BUSINESS_BILL_EXPIRE_TITLE</t>
+  </si>
+  <si>
+    <t>VENDOR_DISCOUNT_SEND_MAIL_FOOT</t>
+  </si>
+  <si>
+    <t>详情额度信息会有邮件提示，请留意您在平台中留下的邮箱信息\n如有疑问，请联系您的客户经理或拨打客服电话(021-59800985)\n</t>
+  </si>
+  <si>
+    <t>勾选发送邮件向供应商发出通知脚部信息</t>
+  </si>
+  <si>
+    <t>VENDOR_DISCOUNT_SEND_MAIL_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据贴现需要您处理，您可以选择现金还款或者票据贴现。\n其中 </t>
   </si>
   <si>
     <r>
@@ -1082,25 +771,23 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>业务贴现</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND_BILL_WECHAT_NOTICE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_BILL_EXPIRE_TITLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_BILL_CONFIRM_FOOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>您可以进行后续的回款确认并操作还款与资金拨付</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t>勾选发送邮件向供应商发出通知</t>
+    </r>
+  </si>
+  <si>
+    <t>VENDOR_DISCOUNT_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据贴现，需要您确认贴现信息\n其中 </t>
+  </si>
+  <si>
+    <t>票据贴现向供应商发送微信头部信息</t>
+  </si>
+  <si>
+    <t>VENDOR_ENDORSEMENT_TITLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据背书，需要您提供被背书人账户信息\n其中 </t>
   </si>
   <si>
     <r>
@@ -1110,1129 +797,28 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>供应商上传附件后，变更票据状态</t>
+      <t>票据背书向供应商发送微信头部信息</t>
     </r>
     <r>
       <rPr>
         <sz val="13"/>
         <color rgb="FF333333"/>
         <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通知经办脚部信息</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_BILL_CONFIRM_TITLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊敬的userName，您好\n供应商已上传附件\n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>供应商上传附件后，变更票据状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>通知经办</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊敬的userName，您好\n有票据即将到期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_BILL_EXPIRE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>票据到期向经办发出通知</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSINESS_BILL_EXPIRE_FOOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>请确认票据后续处理状态。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>票据到期向经办发出通知脚部信息</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>尊敬的userName，您好\n有票据即将到期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENDOR_DISCOUNT_SEND_MAIL_FOOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情额度信息会有邮件提示，请留意您在平台中留下的邮箱信息\n如有疑问，请联系您的客户经理或拨打客服电话(021-59800985)\n</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选发送邮件向供应商发出通知脚部信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENDOR_DISCOUNT_SEND_MAIL_TITLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据贴现需要您处理，您可以选择现金还款或者票据贴现。\n其中 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>勾选发送邮件向供应商发出通知</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENDOR_DISCOUNT_TITLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据贴现向供应商发送微信头部信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>VENDOR_ENDORSEMENT_TITLE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>票据背书向供应商发送微信头部信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>VENDOR_FOOT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据贴现，需要您确认贴现信息\n其中 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">尊敬的用户，您好\n平台中有billCount张票据背书，需要您提供被背书人账户信息\n其中 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">请及时登录平台 app.hscf.com 处理。\n如有疑问，请联系您的客户经理或拨打客服电话(021-59800985) </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>票据向供应商发送微信脚部信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1500</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该票据号码</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已经存在</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1501</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无效的票据金额金额</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1502</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统不存在该票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1503</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该票据不允许编辑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1526</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>未选择票据信息，无法进行票据背书</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1527</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择的票据信息不属于同一组组织关系，无法进行背书操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1528</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统不存在该票据背书信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，无法修改</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1529</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择的票据收票账号不同，无法进行背书操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1530</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择的票据状态不是已签收，无法进行背书操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1531</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该批次的票据正在做还款操作，无法更新附件</t>
-  </si>
-  <si>
-    <t>FUND1504</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>没有可用的票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>处理失败</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1532</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该批次票据状态为已背书，无法撤回</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1533</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该批次票据状态为已撤回，无法多次撤回</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1505</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当前票据信息存在已经被生成过回款的票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请核查</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1506</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的收票账号没有维护保理商业务专户</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1507</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的收票账号没有启用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请核查</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1508</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该融资企业</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的账号有误</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请核查</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1509</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>操作的票据信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> [%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>业务状态不是已签收</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不能进行贴现操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1510</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作的票据信息不是同一组织关系下</t>
-  </si>
-  <si>
-    <t>FUND1511</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>预期操作的贴现费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>实际操作的贴现费用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请核查</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1512</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>选择的票据收票账号不同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无法进行贴现操作</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1513</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>系统不存在该贴现信息</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1514</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>存在已经操作的票据回款,不能撤销,如要撤销请先冲销拨付申请</t>
-  </si>
-  <si>
-    <t>FUND1515</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该贴现操作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>已经撤销，请勿重复撤销</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1516</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>贴现日期不在签收日期和汇票到期日之间,请核查票据信息</t>
-  </si>
-  <si>
-    <t>FUND1517</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>只有已提交贴现的票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>需要确认</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1518</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据或者票据对应的回款不存在,不能确认贴现,请核查</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1519</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该张票据不存在贴现信息</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1520</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有已操作的回款才能编辑背书时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1521</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该票据业务状态为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>票据状态为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不能到期托收</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1522</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据状态为[%s]不存在银行贴现信息</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1523</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>该批存在已经贴现或者结清的票据</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-      </rPr>
-      <t>[%s],</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF333333"/>
-        <rFont val="DengXian"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不能撤销</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1524</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据状态为[%s],不能更新银行流水</t>
-  </si>
-  <si>
-    <t>FUND1525</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据状态为[%s],不能取消到期托收</t>
-  </si>
-  <si>
-    <t>FUND1540</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统生成的流水不让更新</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1541</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收票账户必须是保理实体户或保理虚拟户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1542</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇票出票日期[%s]需小于等于签收日期[%s]</t>
-  </si>
-  <si>
-    <t>FUND1543</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1544</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇票出票日期[%s]需小于等于当前日期</t>
-  </si>
-  <si>
-    <t>签收日期[%s]需小于等于汇票到期日[%s]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该背书操作没有对应的拨付信息,请核查操作</t>
-  </si>
-  <si>
-    <t>回款关联的票据处理尚未完成,不能处理该回款</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>该批次[%s]存在没有操作的回款,不允许填写背书日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1545</t>
-  </si>
-  <si>
-    <t>FUND1546</t>
-  </si>
-  <si>
-    <t>FUND1547</t>
-  </si>
-  <si>
-    <t>FUND1548</t>
-  </si>
-  <si>
-    <t>BILLDISCOUNT</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
-    <t>票据贴现</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUND1221</t>
-  </si>
-  <si>
-    <t>FUND1222</t>
-  </si>
-  <si>
-    <r>
-      <t>FUND122</t>
-    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -2240,27 +826,6 @@
         <rFont val="DengXian"/>
         <charset val="134"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 存在票据类型回款不是同一个背书帐号,请分开拨付</t>
-  </si>
-  <si>
-    <t>没有可用的拨付转出账户信息,处理失败</t>
-  </si>
-  <si>
-    <t>可用还款金额为[%s],实际还款金额为[%s],请检查是否存在票据还款</t>
-  </si>
-  <si>
-    <t>BANK_CREDIT_LEVEL</t>
-  </si>
-  <si>
-    <t>银行信用评级</t>
-  </si>
-  <si>
-    <r>
       <t>L</t>
     </r>
     <r>
@@ -2272,69 +837,1169 @@
       </rPr>
       <t>EVEL_A</t>
     </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A级</t>
   </si>
   <si>
     <t>LEVEL_B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B级</t>
   </si>
   <si>
     <t>LEVEL_C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>A级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>B级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>C级</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE</t>
+  </si>
+  <si>
+    <t>sys_menu</t>
+  </si>
+  <si>
+    <t>#menu_code</t>
+  </si>
+  <si>
+    <t>menu_type</t>
+  </si>
+  <si>
+    <t>resource_group_id</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>menu_route</t>
+  </si>
+  <si>
+    <t>user_menu_name</t>
+  </si>
+  <si>
+    <t>sys_document_rule</t>
+  </si>
+  <si>
+    <t>doc_rule_name</t>
+  </si>
+  <si>
+    <t>#doc_rule_code</t>
+  </si>
+  <si>
+    <t>prefix</t>
+  </si>
+  <si>
+    <t>prefix_flag(BIGINT)</t>
+  </si>
+  <si>
+    <t>connector</t>
+  </si>
+  <si>
+    <t>cycle_type</t>
+  </si>
+  <si>
+    <t>cycle_flag(BIGINT)</t>
+  </si>
+  <si>
+    <t>length(BIGINT)</t>
+  </si>
+  <si>
+    <t>initial_value</t>
+  </si>
+  <si>
+    <t>票据贴现</t>
+  </si>
+  <si>
+    <t>BILLDISCOUNT</t>
+  </si>
+  <si>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>YEAR</t>
   </si>
   <si>
     <t>票据背书</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BILLENDORS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>BE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>票据申请函编码</t>
   </si>
   <si>
     <t>BILLCONTRACT</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>票据申请函编码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>YEAR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESM_ACCOUNT_STATUS_TYPE</t>
-  </si>
-  <si>
-    <t>已撤回</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>default</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_document_squence</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>cycle_prefix</t>
+  </si>
+  <si>
+    <t>cycle_enable</t>
+  </si>
+  <si>
+    <t>prefix_enable</t>
+  </si>
+  <si>
+    <t>connectors</t>
+  </si>
+  <si>
+    <t>sequence_type</t>
+  </si>
+  <si>
+    <t>sequence_length(INT)</t>
+  </si>
+  <si>
+    <t>sequence_start(INT)</t>
+  </si>
+  <si>
+    <t>sequence_next(INT)</t>
+  </si>
+  <si>
+    <t>sys_operate</t>
+  </si>
+  <si>
+    <t>#operate_fields</t>
+  </si>
+  <si>
+    <t>operate_type</t>
+  </si>
+  <si>
+    <t>enable_flag(INT)</t>
+  </si>
+  <si>
+    <t>sys_message</t>
+  </si>
+  <si>
+    <t>*message_id</t>
+  </si>
+  <si>
+    <t>#message_code</t>
+  </si>
+  <si>
+    <t>message_desc</t>
+  </si>
+  <si>
+    <t>module</t>
+  </si>
+  <si>
+    <t>FUND1345</t>
+  </si>
+  <si>
+    <t>租户配置信息不存在 [%s]</t>
+  </si>
+  <si>
+    <t>FUND</t>
+  </si>
+  <si>
+    <t>2aa6b208131141a48ff2e04ab9f3efb6</t>
+  </si>
+  <si>
+    <t>AFWK1160</t>
+  </si>
+  <si>
+    <t>角色已存在</t>
+  </si>
+  <si>
+    <t>AFWK</t>
+  </si>
+  <si>
+    <t>AFWK1161</t>
+  </si>
+  <si>
+    <t>系统中不存在该记录</t>
+  </si>
+  <si>
+    <t>AFWK1162</t>
+  </si>
+  <si>
+    <t>不能给本身角色授权</t>
+  </si>
+  <si>
+    <t>AFWK1163</t>
+  </si>
+  <si>
+    <t>当前角色已经授权给其他角色,请去掉被授予的角色或手工添加逐一所需角色</t>
+  </si>
+  <si>
+    <t>ESM0015</t>
+  </si>
+  <si>
+    <t>此用户还未提交开户申请:[id = %s]</t>
+  </si>
+  <si>
+    <t>ESM</t>
+  </si>
+  <si>
+    <t>ESM0016</t>
+  </si>
+  <si>
+    <t>当前用户不是已申请状态，不能进行撤回</t>
+  </si>
+  <si>
+    <t>FUND1543</t>
+  </si>
+  <si>
+    <t>合同没有维护账户[%s]</t>
+  </si>
+  <si>
+    <t>ANALYSE2001</t>
+  </si>
+  <si>
+    <t>该组织已存在征信贷款信息</t>
+  </si>
+  <si>
+    <t>ANALYSE</t>
+  </si>
+  <si>
+    <t>ANALYSE2002</t>
+  </si>
+  <si>
+    <t>[%s]</t>
+  </si>
+  <si>
+    <t>ANALYSE2003</t>
+  </si>
+  <si>
+    <t>没有回调的该状态[%s]</t>
+  </si>
+  <si>
+    <t>ANALYSE2004</t>
+  </si>
+  <si>
+    <t>该状态[%s]不可编辑</t>
+  </si>
+  <si>
+    <t>ANALYSE2005</t>
+  </si>
+  <si>
+    <t>该状态[%s]下不能提交工作流</t>
+  </si>
+  <si>
+    <t>ANALYSE2006</t>
+  </si>
+  <si>
+    <t>统计日期不能为空</t>
+  </si>
+  <si>
+    <t>ANALYSE1010</t>
+  </si>
+  <si>
+    <t>文件上传失败：[%s]</t>
+  </si>
+  <si>
+    <t>ANALYSE1011</t>
+  </si>
+  <si>
+    <t>转让时间起不能早于转让时间至</t>
+  </si>
+  <si>
+    <t>ANALYSE1012</t>
+  </si>
+  <si>
+    <t>当前状态:[%s],不能更新</t>
+  </si>
+  <si>
+    <t>ANALYSE1013</t>
+  </si>
+  <si>
+    <t>财务信息不存在</t>
+  </si>
+  <si>
+    <t>ANALYSE3001</t>
+  </si>
+  <si>
+    <t>银行征信息不存在</t>
+  </si>
+  <si>
+    <t>FUND1500</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该票据号码</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经存在</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1501</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无效的票据金额金额</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1502</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统不存在该票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1503</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该票据不允许编辑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1526</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>未选择票据信息，无法进行票据背书</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1527</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择的票据信息不属于同一组组织关系，无法进行背书操作</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1528</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统不存在该票据背书信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，无法修改</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1529</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择的票据收票账号不同，无法进行背书操作</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1530</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择的票据状态不是已签收，无法进行背书操作</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1531</t>
+  </si>
+  <si>
+    <t>该批次的票据正在做还款操作，无法更新附件</t>
+  </si>
+  <si>
+    <t>FUND1504</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有可用的票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处理失败</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1532</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该批次票据状态为已背书，无法撤回</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1533</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该批次票据状态为已撤回，无法多次撤回</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1505</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前票据信息存在已经被生成过回款的票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请核查</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1506</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的收票账号没有维护保理商业务专户</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1507</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的收票账号没有启用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请核查</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1508</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该融资企业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的账号有误</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请核查</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1509</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>操作的票据信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> [%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>业务状态不是已签收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能进行贴现操作</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1510</t>
+  </si>
+  <si>
+    <t>操作的票据信息不是同一组织关系下</t>
+  </si>
+  <si>
+    <t>FUND1511</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>预期操作的贴现费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>实际操作的贴现费用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请核查</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1512</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>选择的票据收票账号不同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无法进行贴现操作</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1513</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统不存在该贴现信息</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1514</t>
+  </si>
+  <si>
+    <t>存在已经操作的票据回款,不能撤销,如要撤销请先冲销拨付申请</t>
+  </si>
+  <si>
+    <t>FUND1515</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该贴现操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已经撤销，请勿重复撤销</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1516</t>
+  </si>
+  <si>
+    <t>贴现日期不在签收日期和汇票到期日之间,请核查票据信息</t>
+  </si>
+  <si>
+    <t>FUND1517</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>只有已提交贴现的票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要确认</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1518</t>
+  </si>
+  <si>
+    <t>票据或者票据对应的回款不存在,不能确认贴现,请核查</t>
+  </si>
+  <si>
+    <t>FUND1519</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该张票据不存在贴现信息</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1520</t>
+  </si>
+  <si>
+    <t>只有已操作的回款才能编辑背书时间</t>
+  </si>
+  <si>
+    <t>FUND1521</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该票据业务状态为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>票据状态为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能到期托收</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1522</t>
+  </si>
+  <si>
+    <t>票据状态为[%s]不存在银行贴现信息</t>
+  </si>
+  <si>
+    <t>FUND1523</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>该批存在已经贴现或者结清的票据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[%s],</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不能撤销</t>
+    </r>
+  </si>
+  <si>
+    <t>FUND1524</t>
+  </si>
+  <si>
+    <t>票据状态为[%s],不能更新银行流水</t>
+  </si>
+  <si>
+    <t>FUND1525</t>
+  </si>
+  <si>
+    <t>票据状态为[%s],不能取消到期托收</t>
+  </si>
+  <si>
+    <t>FUND1540</t>
+  </si>
+  <si>
+    <t>系统生成的流水不让更新</t>
+  </si>
+  <si>
+    <t>FUND1541</t>
+  </si>
+  <si>
+    <t>收票账户必须是保理实体户或保理虚拟户</t>
+  </si>
+  <si>
+    <t>FUND1542</t>
+  </si>
+  <si>
+    <t>汇票出票日期[%s]需小于等于签收日期[%s]</t>
+  </si>
+  <si>
+    <t>FUND1544</t>
+  </si>
+  <si>
+    <t>汇票出票日期[%s]需小于等于当前日期</t>
+  </si>
+  <si>
+    <t>FUND1545</t>
+  </si>
+  <si>
+    <t>签收日期[%s]需小于等于汇票到期日[%s]</t>
+  </si>
+  <si>
+    <t>FUND1546</t>
+  </si>
+  <si>
+    <t>该背书操作没有对应的拨付信息,请核查操作</t>
+  </si>
+  <si>
+    <t>FUND1547</t>
+  </si>
+  <si>
+    <t>回款关联的票据处理尚未完成,不能处理该回款</t>
+  </si>
+  <si>
+    <t>FUND1548</t>
+  </si>
+  <si>
+    <t>该批次[%s]存在没有操作的回款,不允许填写背书日期</t>
+  </si>
+  <si>
+    <t>FUND1221</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 存在票据类型回款不是同一个背书帐号,请分开拨付</t>
+  </si>
+  <si>
+    <t>FUND1222</t>
+  </si>
+  <si>
+    <t>没有可用的拨付转出账户信息,处理失败</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FUND122</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="DengXian"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>可用还款金额为[%s],实际还款金额为[%s],请检查是否存在票据还款</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2352,28 +2017,12 @@
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color rgb="FF3B3B3B"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF333333"/>
-      <name val="DengXian"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2384,21 +2033,364 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
       <name val="DengXian"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2406,11 +2398,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2419,32 +2653,78 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -2517,9 +2797,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2777,12 +3054,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2806,7 +3083,7 @@
     <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +3100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="5:14">
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
@@ -2856,7 +3133,7 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>43062</v>
       </c>
       <c r="B8" t="s">
@@ -2893,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="4:14">
       <c r="D9" t="s">
         <v>21</v>
       </c>
@@ -2963,7 +3240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="6:16">
       <c r="F19" t="s">
         <v>17</v>
       </c>
@@ -2998,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:16">
+    <row r="20" spans="6:16">
       <c r="F20" t="s">
         <v>17</v>
       </c>
@@ -3034,8 +3311,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
@@ -3045,11 +3321,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3065,7 +3342,7 @@
     <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3082,7 +3359,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="5:14">
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
@@ -3114,20 +3391,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
+    <row r="8" spans="6:14">
       <c r="F8" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="J8" s="3">
@@ -3146,18 +3420,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="16.5">
+    <row r="9" ht="16.5" spans="6:14">
       <c r="F9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>140</v>
+      <c r="G9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="J9" s="3">
         <v>1</v>
@@ -3175,18 +3449,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5">
+    <row r="10" ht="16.5" spans="6:14">
       <c r="F10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>143</v>
+      <c r="G10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="J10" s="3">
         <v>1</v>
@@ -3204,19 +3478,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
-      <c r="D11" s="14"/>
+    <row r="11" spans="4:14">
+      <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="H11" t="s">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
@@ -3234,18 +3508,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="6:14">
       <c r="F12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>43</v>
       </c>
       <c r="J12" s="3">
         <v>1</v>
@@ -3263,18 +3537,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="6:14">
       <c r="F13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s">
-        <v>193</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="J13" s="3">
         <v>1</v>
@@ -3292,18 +3566,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="6:14">
       <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>196</v>
+        <v>46</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
       <c r="J14" s="3">
         <v>1</v>
@@ -3321,18 +3595,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="6:14">
       <c r="F15" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="10" t="s">
-        <v>198</v>
+      <c r="G15" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>199</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3">
         <v>1</v>
@@ -3350,18 +3624,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="6:14">
       <c r="F16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>51</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>202</v>
+        <v>51</v>
       </c>
       <c r="J16" s="3">
         <v>1</v>
@@ -3379,18 +3653,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:16">
+    <row r="17" spans="6:14">
       <c r="F17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="H17" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="J17" s="3">
         <v>1</v>
@@ -3408,18 +3682,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:16">
+    <row r="18" spans="6:14">
       <c r="F18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>207</v>
+        <v>55</v>
       </c>
       <c r="J18" s="3">
         <v>1</v>
@@ -3437,18 +3711,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:16">
+    <row r="19" spans="6:14">
       <c r="F19" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>384</v>
+      <c r="G19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="J19" s="3">
         <v>1</v>
@@ -3468,10 +3742,10 @@
     </row>
     <row r="28" spans="5:16">
       <c r="E28" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -3504,18 +3778,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="5:16">
+    <row r="29" spans="6:16">
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H29" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -3536,18 +3810,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:16">
+    <row r="30" spans="6:16">
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="I30" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -3568,18 +3842,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:16">
+    <row r="31" spans="6:16">
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H31" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3600,10 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="5:16">
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
+    <row r="32" spans="6:16">
       <c r="F32" t="s">
         <v>17</v>
       </c>
@@ -3611,10 +3882,10 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -3635,10 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="5:16">
-      <c r="E33" t="s">
-        <v>16</v>
-      </c>
+    <row r="33" spans="6:16">
       <c r="F33" t="s">
         <v>17</v>
       </c>
@@ -3646,10 +3914,10 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -3670,10 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="5:16">
-      <c r="E34" t="s">
-        <v>16</v>
-      </c>
+    <row r="34" spans="6:16">
       <c r="F34" t="s">
         <v>17</v>
       </c>
@@ -3681,10 +3946,10 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -3705,10 +3970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="5:16">
-      <c r="E35" t="s">
-        <v>16</v>
-      </c>
+    <row r="35" spans="6:16">
       <c r="F35" t="s">
         <v>17</v>
       </c>
@@ -3716,10 +3978,10 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="I35" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -3740,10 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="5:16">
-      <c r="E36" t="s">
-        <v>16</v>
-      </c>
+    <row r="36" spans="6:16">
       <c r="F36" t="s">
         <v>17</v>
       </c>
@@ -3751,10 +4010,10 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="I36" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -3775,10 +4034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="5:16">
-      <c r="E37" t="s">
-        <v>16</v>
-      </c>
+    <row r="37" spans="6:16">
       <c r="F37" t="s">
         <v>17</v>
       </c>
@@ -3786,10 +4042,10 @@
         <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3810,18 +4066,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="5:16">
+    <row r="38" spans="6:16">
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3842,21 +4098,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="5:16" ht="16.5">
+    <row r="39" ht="16.5" spans="6:16">
       <c r="F39" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>141</v>
+      <c r="G39" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3877,21 +4133,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="5:16" ht="16.5">
+    <row r="40" ht="16.5" spans="6:16">
       <c r="F40" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J40" s="6" t="s">
-        <v>147</v>
+      <c r="G40" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3912,21 +4168,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="5:16" ht="16.5">
+    <row r="41" ht="16.5" spans="6:16">
       <c r="F41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J41" s="6" t="s">
-        <v>148</v>
+      <c r="G41" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3947,21 +4203,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:16" ht="16.5">
+    <row r="42" ht="16.5" spans="6:16">
       <c r="F42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="I42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="6" t="s">
-        <v>149</v>
+      <c r="G42" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3982,21 +4238,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="5:16" ht="16.5">
+    <row r="43" ht="16.5" spans="6:16">
       <c r="F43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43" s="6" t="s">
-        <v>150</v>
+      <c r="G43" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4017,21 +4273,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:16" ht="16.5">
+    <row r="44" ht="16.5" spans="6:16">
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>158</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J44" s="6" t="s">
-        <v>162</v>
+        <v>90</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -4052,21 +4308,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:16" ht="16.5">
+    <row r="45" ht="16.5" spans="6:16">
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="J45" s="6" t="s">
-        <v>164</v>
+        <v>40</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -4087,21 +4343,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:16" ht="16.5">
+    <row r="46" ht="16.5" spans="6:16">
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>153</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="J46" s="6" t="s">
-        <v>165</v>
+        <v>40</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -4122,21 +4378,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="5:16" ht="16.5">
+    <row r="47" ht="16.5" spans="6:16">
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>160</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>167</v>
+        <v>99</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -4157,21 +4413,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="5:16" ht="16.5">
+    <row r="48" ht="16.5" spans="6:16">
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>161</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>168</v>
+        <v>102</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4192,21 +4448,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="6:16" ht="16.5">
+    <row r="49" ht="16.5" spans="6:16">
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="6" t="s">
-        <v>183</v>
+        <v>105</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -4227,21 +4483,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:16" ht="16.5">
+    <row r="50" ht="16.5" spans="6:16">
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>179</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="J50" s="6" t="s">
-        <v>185</v>
+        <v>108</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -4262,21 +4518,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="6:16" ht="16.5">
+    <row r="51" ht="16.5" spans="6:16">
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>180</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="J51" s="6" t="s">
-        <v>187</v>
+        <v>110</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -4297,21 +4553,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="6:16" ht="16.5">
+    <row r="52" ht="16.5" spans="6:16">
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>181</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>190</v>
+        <v>113</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -4332,21 +4588,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="6:16" ht="16.5">
+    <row r="53" ht="16.5" spans="6:16">
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>168</v>
+        <v>102</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -4367,21 +4623,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="6:16" ht="16.5">
+    <row r="54" ht="16.5" spans="6:16">
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>208</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="J54" s="6" t="s">
-        <v>211</v>
+        <v>116</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -4402,21 +4658,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="6:16" ht="16.5">
+    <row r="55" ht="16.5" spans="6:16">
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>209</v>
-      </c>
-      <c r="I55" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>213</v>
+        <v>119</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>121</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -4437,21 +4693,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="6:16" ht="16.5">
+    <row r="56" ht="16.5" spans="6:16">
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="J56" s="6" t="s">
-        <v>217</v>
+        <v>122</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -4472,21 +4728,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="6:16" ht="16.5">
+    <row r="57" ht="16.5" spans="6:16">
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>218</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="J57" s="6" t="s">
-        <v>220</v>
+        <v>125</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -4507,21 +4763,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="6:16" ht="16.5">
+    <row r="58" ht="16.5" spans="6:16">
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>221</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="J58" s="6" t="s">
-        <v>228</v>
+        <v>128</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -4542,21 +4798,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="6:16" ht="16.5">
+    <row r="59" ht="16.5" spans="6:16">
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>222</v>
-      </c>
-      <c r="I59" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="J59" s="6" t="s">
-        <v>230</v>
+        <v>131</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -4577,21 +4833,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="6:16" ht="16.5">
+    <row r="60" ht="16.5" spans="6:16">
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>223</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" s="6" t="s">
-        <v>232</v>
+        <v>132</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -4612,21 +4868,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="6:16" ht="16.5">
+    <row r="61" ht="16.5" spans="6:16">
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>224</v>
-      </c>
-      <c r="I61" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>234</v>
+        <v>135</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>137</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -4647,21 +4903,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="6:16" ht="16.5">
+    <row r="62" ht="16.5" spans="6:16">
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>225</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="J62" s="6" t="s">
-        <v>236</v>
+        <v>138</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -4682,21 +4938,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="6:16" ht="16.5">
+    <row r="63" ht="16.5" spans="6:16">
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>198</v>
+        <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>226</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J63" s="6" t="s">
-        <v>237</v>
+        <v>141</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -4717,21 +4973,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="6:16" ht="16.5">
+    <row r="64" ht="16.5" spans="6:16">
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>239</v>
-      </c>
-      <c r="I64" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="J64" s="6" t="s">
-        <v>228</v>
+        <v>142</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J64" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -4752,21 +5008,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="6:16" ht="16.5">
+    <row r="65" ht="16.5" spans="6:16">
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>240</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="J65" s="6" t="s">
-        <v>165</v>
+        <v>143</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -4787,21 +5043,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="6:16" ht="16.5">
+    <row r="66" ht="16.5" spans="6:16">
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>241</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="J66" s="6" t="s">
-        <v>236</v>
+        <v>144</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -4822,21 +5078,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="6:16" ht="16.5">
+    <row r="67" ht="16.5" spans="6:16">
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s">
-        <v>242</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="J67" s="6" t="s">
-        <v>183</v>
+        <v>145</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -4857,21 +5113,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="6:16" ht="16.5">
+    <row r="68" ht="16.5" spans="6:16">
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>157</v>
-      </c>
-      <c r="I68" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="J68" s="6" t="s">
-        <v>164</v>
+        <v>93</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -4892,21 +5148,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="6:16" ht="16.5">
+    <row r="69" ht="16.5" spans="6:16">
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>141</v>
       </c>
       <c r="I69" t="s">
-        <v>188</v>
-      </c>
-      <c r="J69" s="6" t="s">
-        <v>248</v>
+        <v>114</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4927,21 +5183,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="6:16" ht="16.5">
+    <row r="70" ht="16.5" spans="6:16">
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>238</v>
+        <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>243</v>
-      </c>
-      <c r="I70" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="J70" s="6" t="s">
-        <v>167</v>
+        <v>146</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J70" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4962,21 +5218,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="6:16" ht="16.5">
+    <row r="71" ht="16.5" spans="6:16">
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="H71" t="s">
-        <v>250</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="J71" s="6" t="s">
-        <v>253</v>
+        <v>147</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="J71" s="4" t="s">
+        <v>149</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4997,21 +5253,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="6:16" ht="16.5">
+    <row r="72" ht="16.5" spans="6:16">
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>249</v>
+        <v>52</v>
       </c>
       <c r="H72" t="s">
-        <v>251</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="J72" s="6" t="s">
-        <v>255</v>
+        <v>150</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="J72" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -5032,21 +5288,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="6:16" ht="16.5">
+    <row r="73" ht="16.5" spans="6:16">
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H73" t="s">
-        <v>258</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="J73" s="6" t="s">
-        <v>260</v>
+        <v>153</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="J73" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -5067,21 +5323,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="6:16" ht="16.5">
+    <row r="74" ht="16.5" spans="6:16">
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H74" t="s">
-        <v>261</v>
-      </c>
-      <c r="I74" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="J74" s="6" t="s">
-        <v>263</v>
+        <v>156</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="J74" s="4" t="s">
+        <v>158</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -5102,21 +5358,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="6:16" ht="16.5">
+    <row r="75" ht="16.5" spans="6:16">
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>265</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="J75" s="6" t="s">
-        <v>266</v>
+        <v>159</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J75" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -5137,21 +5393,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="6:16" ht="16.5">
+    <row r="76" ht="16.5" spans="6:16">
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H76" t="s">
-        <v>267</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="J76" s="6" t="s">
-        <v>269</v>
+        <v>162</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>164</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -5172,21 +5428,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="6:16" ht="16.5">
+    <row r="77" ht="16.5" spans="6:16">
       <c r="F77" t="s">
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H77" t="s">
-        <v>257</v>
-      </c>
-      <c r="I77" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="J77" s="6" t="s">
-        <v>266</v>
+        <v>165</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -5207,21 +5463,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="6:16" ht="16.5">
+    <row r="78" ht="16.5" spans="6:16">
       <c r="F78" t="s">
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H78" t="s">
-        <v>271</v>
-      </c>
-      <c r="I78" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="J78" s="9" t="s">
-        <v>273</v>
+        <v>166</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>168</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -5242,21 +5498,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="6:16" ht="16.5">
+    <row r="79" ht="16.5" spans="6:16">
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H79" t="s">
-        <v>274</v>
+        <v>169</v>
       </c>
       <c r="I79" t="s">
-        <v>275</v>
-      </c>
-      <c r="J79" s="6" t="s">
-        <v>276</v>
+        <v>170</v>
+      </c>
+      <c r="J79" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -5277,21 +5533,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="6:16" ht="16.5">
+    <row r="80" ht="16.5" spans="6:16">
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H80" t="s">
-        <v>277</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="J80" s="9" t="s">
-        <v>278</v>
+        <v>172</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -5312,21 +5568,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="6:16" ht="16.5">
+    <row r="81" ht="16.5" spans="6:16">
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H81" t="s">
-        <v>279</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="J81" s="6" t="s">
-        <v>280</v>
+        <v>175</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="J81" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -5347,21 +5603,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="6:16" ht="16.5">
+    <row r="82" ht="16.5" spans="6:16">
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>256</v>
+        <v>54</v>
       </c>
       <c r="H82" t="s">
-        <v>281</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="J82" s="9" t="s">
-        <v>285</v>
+        <v>178</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>180</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -5382,21 +5638,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="6:16" ht="16.5">
+    <row r="83" ht="16.5" spans="6:16">
       <c r="F83" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="H83" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="I83" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="J83" s="9" t="s">
-        <v>388</v>
+      <c r="G83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -5417,21 +5673,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="6:16" ht="16.5">
+    <row r="84" ht="16.5" spans="6:16">
       <c r="F84" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="H84" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="I84" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="J84" s="9" t="s">
-        <v>389</v>
+      <c r="G84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -5452,21 +5708,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="6:16" ht="16.5">
+    <row r="85" ht="16.5" spans="6:16">
       <c r="F85" t="s">
-        <v>399</v>
-      </c>
-      <c r="G85" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="H85" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="J85" s="9" t="s">
-        <v>390</v>
+        <v>17</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>186</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -5487,21 +5743,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="6:16" ht="16.5">
+    <row r="86" ht="16.5" spans="6:16">
       <c r="F86" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>397</v>
+        <v>187</v>
       </c>
       <c r="H86" t="s">
-        <v>57</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="J86" s="9" t="s">
-        <v>398</v>
+        <v>79</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -5523,9 +5779,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
@@ -5534,7 +5789,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
@@ -5559,7 +5815,7 @@
     <col min="17" max="18" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5576,30 +5832,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="5:18">
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>60</v>
+        <v>189</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>63</v>
+        <v>192</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>64</v>
+        <v>193</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>65</v>
+        <v>194</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>9</v>
@@ -5620,8 +5876,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4">
+    <row r="8" spans="1:17">
+      <c r="A8" s="8">
         <v>43062</v>
       </c>
       <c r="B8" t="s">
@@ -5640,7 +5896,7 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
     </row>
-    <row r="18" spans="7:16">
+    <row r="18" spans="12:15">
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
@@ -5654,7 +5910,7 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
     </row>
-    <row r="20" spans="7:16">
+    <row r="20" spans="12:16">
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
@@ -5662,8 +5918,7 @@
       <c r="P20" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
@@ -5673,7 +5928,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5703,7 +5959,7 @@
     <col min="22" max="22" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5720,39 +5976,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="5:20">
       <c r="E7" s="3" t="s">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>68</v>
+        <v>197</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>69</v>
+        <v>198</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>71</v>
+        <v>200</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>74</v>
+        <v>203</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>10</v>
@@ -5770,103 +6026,103 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
-      <c r="G8" s="11" t="s">
-        <v>376</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="J8" s="11">
-        <v>1</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="M8" s="11">
-        <v>0</v>
-      </c>
-      <c r="N8" s="11">
+    <row r="8" spans="7:22">
+      <c r="G8" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M8" s="5">
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
         <v>5</v>
       </c>
-      <c r="O8" s="11">
-        <v>1</v>
-      </c>
-      <c r="P8" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>43117.105451388888</v>
-      </c>
-      <c r="R8" s="11">
-        <v>1</v>
-      </c>
-      <c r="S8" s="12">
-        <v>43117.105451388888</v>
-      </c>
-      <c r="T8" s="11">
-        <v>1</v>
-      </c>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-    </row>
-    <row r="9" spans="1:22">
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>43117.1054513889</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="7">
+        <v>43117.1054513889</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="7:20">
       <c r="G9" t="s">
-        <v>391</v>
+        <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>392</v>
+        <v>210</v>
       </c>
       <c r="I9" t="s">
-        <v>393</v>
-      </c>
-      <c r="J9" s="11">
-        <v>1</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
+        <v>211</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M9" s="5">
+        <v>0</v>
+      </c>
+      <c r="N9" s="5">
         <v>5</v>
       </c>
-      <c r="O9" s="11">
-        <v>1</v>
-      </c>
-      <c r="P9" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>43118.105451331016</v>
-      </c>
-      <c r="R9" s="11">
-        <v>1</v>
-      </c>
-      <c r="S9" s="12">
-        <v>43118.105451331016</v>
-      </c>
-      <c r="T9" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>43118.105451331</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="7">
+        <v>43118.105451331</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="7:20">
       <c r="G10" t="s">
-        <v>395</v>
+        <v>212</v>
       </c>
       <c r="H10" t="s">
-        <v>394</v>
+        <v>213</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>396</v>
+        <v>208</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -5880,20 +6136,20 @@
       <c r="P10">
         <v>1</v>
       </c>
-      <c r="Q10" s="12">
-        <v>43119.10545127315</v>
-      </c>
-      <c r="R10" s="11">
-        <v>1</v>
-      </c>
-      <c r="S10" s="12">
-        <v>43119.10545127315</v>
-      </c>
-      <c r="T10" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="7:21">
+      <c r="Q10" s="7">
+        <v>43119.1054512731</v>
+      </c>
+      <c r="R10" s="5">
+        <v>1</v>
+      </c>
+      <c r="S10" s="7">
+        <v>43119.1054512731</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="18:20">
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
@@ -5905,15 +6161,14 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="7:21">
+    <row r="19" spans="18:21">
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
@@ -5923,7 +6178,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5956,7 +6212,7 @@
     <col min="22" max="22" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5973,45 +6229,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="5:22">
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>78</v>
+        <v>216</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>81</v>
+        <v>219</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>82</v>
+        <v>220</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>84</v>
+        <v>222</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>85</v>
+        <v>223</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>86</v>
+        <v>224</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>10</v>
@@ -6029,7 +6285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="7:19">
+    <row r="17" spans="16:18">
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
@@ -6041,15 +6297,14 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="7:19">
+    <row r="19" spans="16:19">
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
@@ -6059,7 +6314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6083,7 +6339,7 @@
     <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6100,21 +6356,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="5:15">
       <c r="E7" s="3" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>9</v>
@@ -6135,7 +6391,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="7:15">
+    <row r="17" spans="12:14">
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
@@ -6147,15 +6403,14 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="7:15">
+    <row r="19" spans="12:15">
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
@@ -6165,7 +6420,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6190,7 +6446,7 @@
     <col min="16" max="16" width="21.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6207,21 +6463,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="5:14">
       <c r="E7" s="3" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>93</v>
+        <v>231</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>10</v>
@@ -6239,27 +6495,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="6:14">
       <c r="F8" t="s">
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>236</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="K8" t="s">
         <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>237</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -6268,18 +6524,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="6:14">
       <c r="F9" t="s">
         <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="H9" t="s">
-        <v>101</v>
+        <v>239</v>
       </c>
       <c r="I9" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -6297,18 +6553,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="6:14">
       <c r="F10" t="s">
         <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>241</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>242</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -6326,18 +6582,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="6:14">
       <c r="F11" t="s">
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -6355,18 +6611,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="6:14">
       <c r="F12" t="s">
         <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>246</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -6384,18 +6640,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="6:14">
       <c r="F13" t="s">
         <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>248</v>
       </c>
       <c r="I13" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -6413,18 +6669,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="6:14">
       <c r="F14" t="s">
         <v>17</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>251</v>
       </c>
       <c r="I14" t="s">
-        <v>111</v>
+        <v>249</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -6442,600 +6698,600 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="6:14">
       <c r="F15" t="s">
         <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="H15" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="I15" t="s">
+        <v>236</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="6:14">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="I16" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="6:14">
+      <c r="F17" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I17" t="s">
+        <v>256</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>20</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="6:15">
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" t="s">
+        <v>256</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" ht="16.5" spans="6:15">
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>261</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I19" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" ht="16.5" spans="6:14">
+      <c r="F20" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>263</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I20" t="s">
+        <v>256</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="6:14">
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="I21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="6:14">
+      <c r="F22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>267</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" t="s">
+        <v>256</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>20</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="6:14">
+      <c r="F23" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>269</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I23" t="s">
+        <v>256</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23" t="s">
+        <v>20</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="6:14">
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I24" t="s">
+        <v>256</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24" t="s">
+        <v>20</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="6:14">
+      <c r="F25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>273</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I25" t="s">
+        <v>256</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25" t="s">
+        <v>20</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="6:14">
+      <c r="F26" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I26" t="s">
+        <v>256</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="6:14">
+      <c r="F27" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>277</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="6:14">
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>279</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>20</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="6:14">
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>281</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="6:14">
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="I30" t="s">
+        <v>236</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="6:14">
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>285</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>20</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="6:14">
+      <c r="F32" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>287</v>
+      </c>
+      <c r="H32" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16.5">
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I16" t="s">
-        <v>138</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="6:15" ht="16.5">
-      <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I17" t="s">
-        <v>138</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="6:15" ht="16.5">
-      <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I18" t="s">
-        <v>138</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="6:15" ht="16.5">
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>121</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>138</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="6:15" ht="16.5">
-      <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>123</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I20" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="6:15" ht="16.5">
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s">
-        <v>125</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="I21" t="s">
-        <v>138</v>
-      </c>
-      <c r="J21">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="6:15" ht="16.5">
-      <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>127</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="6:15" ht="16.5">
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s">
-        <v>129</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" t="s">
-        <v>138</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-      <c r="K23" t="s">
-        <v>20</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="6:15" ht="16.5">
-      <c r="F24" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="I24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-      <c r="K24" t="s">
-        <v>20</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24" t="s">
-        <v>20</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="6:15" ht="16.5">
-      <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>133</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" t="s">
-        <v>138</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25" t="s">
-        <v>20</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>20</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:15" ht="16.5">
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>135</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="I26" t="s">
-        <v>138</v>
-      </c>
-      <c r="J26">
-        <v>1</v>
-      </c>
-      <c r="K26" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="6:15" ht="16.5">
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>286</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="I32" t="s">
+        <v>236</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32" t="s">
+        <v>20</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="6:14">
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
         <v>289</v>
       </c>
-      <c r="J27">
-        <v>1</v>
-      </c>
-      <c r="K27" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="6:15" ht="16.5">
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="H33" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="H28" s="6" t="s">
+      <c r="I33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="6:14">
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
         <v>291</v>
       </c>
-      <c r="I28" t="s">
-        <v>289</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="6:15" ht="16.5">
-      <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="H34" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="H29" s="6" t="s">
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34" t="s">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="6:14">
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
         <v>293</v>
       </c>
-      <c r="I29" t="s">
-        <v>289</v>
-      </c>
-      <c r="J29">
-        <v>1</v>
-      </c>
-      <c r="K29" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="6:15" ht="16.5">
-      <c r="F30" t="s">
-        <v>17</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H35" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="I30" t="s">
-        <v>289</v>
-      </c>
-      <c r="J30">
-        <v>1</v>
-      </c>
-      <c r="K30" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="6:15" ht="16.5">
-      <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>296</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="I31" t="s">
-        <v>289</v>
-      </c>
-      <c r="J31">
-        <v>1</v>
-      </c>
-      <c r="K31" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="6:15" ht="16.5">
-      <c r="F32" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" t="s">
-        <v>298</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="I32" t="s">
-        <v>289</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14" ht="16.5">
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>300</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="I33" t="s">
-        <v>289</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
-      </c>
-      <c r="K33" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="6:14" ht="16.5">
-      <c r="F34" t="s">
-        <v>17</v>
-      </c>
-      <c r="G34" t="s">
-        <v>302</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="I34" t="s">
-        <v>289</v>
-      </c>
-      <c r="J34">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="6:14" ht="16.5">
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>304</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="I35" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -7058,245 +7314,245 @@
         <v>17</v>
       </c>
       <c r="G36" t="s">
+        <v>295</v>
+      </c>
+      <c r="H36" t="s">
+        <v>296</v>
+      </c>
+      <c r="I36" t="s">
+        <v>236</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36" t="s">
+        <v>20</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="6:14">
+      <c r="F37" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I37" t="s">
+        <v>236</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="6:14">
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>299</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I38" t="s">
+        <v>236</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="6:14">
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>301</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="I39" t="s">
+        <v>236</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39" t="s">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="6:14">
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>303</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I40" t="s">
+        <v>236</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40" t="s">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="6:14">
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>305</v>
+      </c>
+      <c r="H41" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I41" t="s">
+        <v>236</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41" t="s">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="6:14">
+      <c r="F42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
         <v>307</v>
       </c>
-      <c r="I36" t="s">
-        <v>289</v>
-      </c>
-      <c r="J36">
-        <v>1</v>
-      </c>
-      <c r="K36" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:14" ht="16.5">
-      <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H42" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="I42" t="s">
+        <v>236</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>1</v>
+      </c>
+      <c r="M42" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="6:14">
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
         <v>309</v>
       </c>
-      <c r="I37" t="s">
-        <v>289</v>
-      </c>
-      <c r="J37">
-        <v>1</v>
-      </c>
-      <c r="K37" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="6:14" ht="16.5">
-      <c r="F38" t="s">
-        <v>17</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="H43" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="6" t="s">
+      <c r="I43" t="s">
+        <v>236</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43" t="s">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="6:14">
+      <c r="F44" t="s">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
         <v>311</v>
       </c>
-      <c r="I38" t="s">
-        <v>289</v>
-      </c>
-      <c r="J38">
-        <v>1</v>
-      </c>
-      <c r="K38" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="6:14" ht="16.5">
-      <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="H44" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="H39" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="I39" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39">
-        <v>1</v>
-      </c>
-      <c r="K39" t="s">
-        <v>20</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="6:14" ht="16.5">
-      <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>314</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="I40" t="s">
-        <v>289</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>20</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="6:14" ht="16.5">
-      <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>316</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="I41" t="s">
-        <v>289</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="6:14" ht="16.5">
-      <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>318</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="I42" t="s">
-        <v>289</v>
-      </c>
-      <c r="J42">
-        <v>1</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:14" ht="16.5">
-      <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>320</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="I43" t="s">
-        <v>289</v>
-      </c>
-      <c r="J43">
-        <v>1</v>
-      </c>
-      <c r="K43" t="s">
-        <v>20</v>
-      </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14" ht="16.5">
-      <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>322</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="I44" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -7319,13 +7575,13 @@
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -7343,18 +7599,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="6:14" ht="16.5">
+    <row r="46" ht="16.5" spans="6:14">
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>326</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="I46" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -7372,18 +7628,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="6:14" ht="16.5">
+    <row r="47" ht="16.5" spans="6:14">
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>328</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>329</v>
+        <v>317</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="I47" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -7401,18 +7657,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="6:14" ht="16.5">
+    <row r="48" ht="16.5" spans="6:14">
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>330</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>320</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -7435,13 +7691,13 @@
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="H49" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="I49" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -7459,18 +7715,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="6:14" ht="16.5">
+    <row r="50" ht="16.5" spans="6:14">
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>334</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>324</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -7493,13 +7749,13 @@
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="H51" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -7517,18 +7773,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="6:14" ht="16.5">
+    <row r="52" ht="16.5" spans="6:14">
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>338</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>328</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -7551,13 +7807,13 @@
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="H53" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -7575,18 +7831,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="6:14" ht="16.5">
+    <row r="54" ht="16.5" spans="6:14">
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>342</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>332</v>
       </c>
       <c r="I54" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -7609,13 +7865,13 @@
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="H55" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -7633,18 +7889,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="6:14" ht="16.5">
+    <row r="56" ht="16.5" spans="6:14">
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>346</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>347</v>
+        <v>335</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="I56" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -7667,13 +7923,13 @@
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="H57" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -7691,18 +7947,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="6:14" ht="16.5">
+    <row r="58" ht="16.5" spans="6:14">
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>350</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>351</v>
+        <v>339</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -7725,13 +7981,13 @@
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="H59" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="I59" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -7754,13 +8010,13 @@
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="H60" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="I60" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J60">
         <v>1</v>
@@ -7783,13 +8039,13 @@
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="H61" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J61">
         <v>1</v>
@@ -7812,13 +8068,13 @@
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H62" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="I62" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J62">
         <v>1</v>
@@ -7841,13 +8097,13 @@
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="H63" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J63">
         <v>1</v>
@@ -7870,13 +8126,13 @@
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>362</v>
+        <v>252</v>
       </c>
       <c r="H64" t="s">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J64">
         <v>1</v>
@@ -7899,13 +8155,13 @@
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H65" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="I65" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J65">
         <v>1</v>
@@ -7928,13 +8184,13 @@
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="H66" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="I66" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J66">
         <v>1</v>
@@ -7957,13 +8213,13 @@
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H67" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="I67" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J67">
         <v>1</v>
@@ -7986,13 +8242,13 @@
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H68" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="I68" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J68">
         <v>1</v>
@@ -8015,13 +8271,13 @@
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H69" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>236</v>
       </c>
       <c r="J69">
         <v>1</v>
@@ -8043,14 +8299,14 @@
       <c r="F70" t="s">
         <v>17</v>
       </c>
-      <c r="G70" s="11" t="s">
-        <v>377</v>
+      <c r="G70" s="5" t="s">
+        <v>361</v>
       </c>
       <c r="H70" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="I70" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="J70">
         <v>1</v>
@@ -8072,14 +8328,14 @@
       <c r="F71" t="s">
         <v>17</v>
       </c>
-      <c r="G71" s="11" t="s">
-        <v>378</v>
+      <c r="G71" s="5" t="s">
+        <v>363</v>
       </c>
       <c r="H71" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
       <c r="I71" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="J71">
         <v>1</v>
@@ -8101,14 +8357,14 @@
       <c r="F72" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="13" t="s">
-        <v>379</v>
+      <c r="G72" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="H72" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="I72" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
       <c r="J72">
         <v>1</v>
@@ -8127,9 +8383,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>

--- a/cloud_afwk.xlsx
+++ b/cloud_afwk.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
   <si>
     <t>日期</t>
   </si>
@@ -193,6 +193,12 @@
   </si>
   <si>
     <t>银行信用评级</t>
+  </si>
+  <si>
+    <t>ROMAN_DEMO</t>
+  </si>
+  <si>
+    <t>Roman测试</t>
   </si>
   <si>
     <t>sys_lookup_value</t>
@@ -846,16 +852,28 @@
   <si>
     <t>ESM_ACCOUNT_STATUS_TYPE</t>
   </si>
+  <si>
+    <t>ROMAN1</t>
+  </si>
+  <si>
+    <t>已撤回1</t>
+  </si>
+  <si>
+    <t>ROMAN2</t>
+  </si>
+  <si>
+    <t>已撤回2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -900,7 +918,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -913,6 +939,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -921,44 +954,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,19 +968,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1002,9 +1012,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1018,23 +1027,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1047,6 +1057,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1057,25 +1075,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,13 +1117,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1105,25 +1135,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,7 +1171,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1153,91 +1255,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,25 +1269,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1284,17 +1304,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1317,19 +1331,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1351,148 +1369,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2166,10 +2184,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2583,12 +2601,41 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="6:14">
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
     <row r="28" spans="5:16">
       <c r="E28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -2626,13 +2673,13 @@
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2658,13 +2705,13 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2690,13 +2737,13 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2725,10 +2772,10 @@
         <v>34</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2757,10 +2804,10 @@
         <v>34</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2789,10 +2836,10 @@
         <v>34</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2821,10 +2868,10 @@
         <v>34</v>
       </c>
       <c r="H35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2853,10 +2900,10 @@
         <v>34</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2885,10 +2932,10 @@
         <v>34</v>
       </c>
       <c r="H37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2914,13 +2961,13 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2952,10 +2999,10 @@
         <v>36</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2984,13 +3031,13 @@
         <v>38</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3019,13 +3066,13 @@
         <v>38</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3054,13 +3101,13 @@
         <v>38</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3089,13 +3136,13 @@
         <v>38</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3124,13 +3171,13 @@
         <v>40</v>
       </c>
       <c r="H44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3159,13 +3206,13 @@
         <v>40</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3194,13 +3241,13 @@
         <v>40</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3229,13 +3276,13 @@
         <v>40</v>
       </c>
       <c r="H47" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3264,13 +3311,13 @@
         <v>40</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3299,13 +3346,13 @@
         <v>42</v>
       </c>
       <c r="H49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3334,13 +3381,13 @@
         <v>42</v>
       </c>
       <c r="H50" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3369,13 +3416,13 @@
         <v>42</v>
       </c>
       <c r="H51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3404,13 +3451,13 @@
         <v>42</v>
       </c>
       <c r="H52" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3439,13 +3486,13 @@
         <v>42</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3474,13 +3521,13 @@
         <v>44</v>
       </c>
       <c r="H54" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3509,13 +3556,13 @@
         <v>44</v>
       </c>
       <c r="H55" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -3544,13 +3591,13 @@
         <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3579,13 +3626,13 @@
         <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3614,13 +3661,13 @@
         <v>48</v>
       </c>
       <c r="H58" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3649,13 +3696,13 @@
         <v>48</v>
       </c>
       <c r="H59" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3684,13 +3731,13 @@
         <v>48</v>
       </c>
       <c r="H60" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3719,13 +3766,13 @@
         <v>48</v>
       </c>
       <c r="H61" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3754,13 +3801,13 @@
         <v>48</v>
       </c>
       <c r="H62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3789,13 +3836,13 @@
         <v>48</v>
       </c>
       <c r="H63" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3824,13 +3871,13 @@
         <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3859,13 +3906,13 @@
         <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3894,13 +3941,13 @@
         <v>50</v>
       </c>
       <c r="H66" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -3929,13 +3976,13 @@
         <v>50</v>
       </c>
       <c r="H67" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -3964,13 +4011,13 @@
         <v>50</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -3999,13 +4046,13 @@
         <v>50</v>
       </c>
       <c r="H69" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I69" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -4034,13 +4081,13 @@
         <v>50</v>
       </c>
       <c r="H70" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -4069,13 +4116,13 @@
         <v>52</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -4104,13 +4151,13 @@
         <v>52</v>
       </c>
       <c r="H72" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -4139,13 +4186,13 @@
         <v>54</v>
       </c>
       <c r="H73" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -4174,13 +4221,13 @@
         <v>54</v>
       </c>
       <c r="H74" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -4209,13 +4256,13 @@
         <v>54</v>
       </c>
       <c r="H75" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -4244,13 +4291,13 @@
         <v>54</v>
       </c>
       <c r="H76" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -4279,13 +4326,13 @@
         <v>54</v>
       </c>
       <c r="H77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -4314,13 +4361,13 @@
         <v>54</v>
       </c>
       <c r="H78" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -4349,13 +4396,13 @@
         <v>54</v>
       </c>
       <c r="H79" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I79" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -4384,13 +4431,13 @@
         <v>54</v>
       </c>
       <c r="H80" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -4419,13 +4466,13 @@
         <v>54</v>
       </c>
       <c r="H81" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -4454,13 +4501,13 @@
         <v>54</v>
       </c>
       <c r="H82" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -4489,13 +4536,13 @@
         <v>56</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -4524,13 +4571,13 @@
         <v>56</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -4559,13 +4606,13 @@
         <v>56</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -4591,16 +4638,16 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H86" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -4618,6 +4665,76 @@
         <v>20</v>
       </c>
       <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5" spans="6:16">
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>58</v>
+      </c>
+      <c r="H87" t="s">
+        <v>190</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N87">
+        <v>-1</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="6:16">
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>58</v>
+      </c>
+      <c r="H88" t="s">
+        <v>192</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N88">
+        <v>-1</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P88" s="3">
         <v>0</v>
       </c>
     </row>

--- a/cloud_afwk.xlsx
+++ b/cloud_afwk.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
   <si>
     <t>日期</t>
   </si>
@@ -120,9 +120,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>last_updated_by</t>
-  </si>
-  <si>
     <t>MATERIAL_TYPE</t>
   </si>
   <si>
@@ -193,12 +190,6 @@
   </si>
   <si>
     <t>银行信用评级</t>
-  </si>
-  <si>
-    <t>ROMAN_DEMO</t>
-  </si>
-  <si>
-    <t>Roman测试</t>
   </si>
   <si>
     <t>sys_lookup_value</t>
@@ -852,18 +843,6 @@
   <si>
     <t>ESM_ACCOUNT_STATUS_TYPE</t>
   </si>
-  <si>
-    <t>ROMAN1</t>
-  </si>
-  <si>
-    <t>已撤回1</t>
-  </si>
-  <si>
-    <t>ROMAN2</t>
-  </si>
-  <si>
-    <t>已撤回2</t>
-  </si>
 </sst>
 </file>
 
@@ -871,9 +850,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -924,17 +903,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="DengXian"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -947,14 +926,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -976,6 +947,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="DengXian"/>
@@ -990,16 +969,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1012,18 +999,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1043,26 +1037,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1075,7 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1066,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,25 +1198,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,73 +1222,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,55 +1234,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,6 +1245,63 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1295,48 +1331,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1351,31 +1345,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1384,133 +1363,133 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2184,10 +2163,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P88"/>
+  <dimension ref="A1:P86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28:P86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2220,7 +2199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="5:14">
+    <row r="7" spans="5:12">
       <c r="E7" s="3" t="s">
         <v>31</v>
       </c>
@@ -2236,406 +2215,233 @@
       <c r="I7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="6:13">
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="M7" t="s">
-        <v>13</v>
-      </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="6:14">
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="I8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" ht="16.5" spans="6:13">
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="16.5" spans="6:14">
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" ht="16.5" spans="6:13">
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="16.5" spans="6:14">
-      <c r="F10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="I10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="4:14">
+        <v>38</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="4:13">
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
         <v>40</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="6:13">
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="3">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14">
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="6:13">
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I12" t="s">
-        <v>43</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14">
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="6:13">
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="I13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" s="3">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="6:14">
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="6:13">
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="3">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="6:14">
-      <c r="F15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="6:13">
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="6:14">
-      <c r="F16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="6:13">
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:14">
-      <c r="F17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="6:13">
+      <c r="F18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="3">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="6:14">
-      <c r="F18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="3" t="s">
+      <c r="H18" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="6:13">
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:14">
-      <c r="F19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="3" t="s">
+      <c r="H19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="I19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="28" spans="5:14">
+      <c r="E28" t="s">
         <v>57</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L19" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="6:14">
-      <c r="F20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="3" t="s">
+      <c r="F28" t="s">
         <v>58</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="5:16">
-      <c r="E28" t="s">
-        <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -2652,2091 +2458,1428 @@
       <c r="K28" t="s">
         <v>29</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O28" t="s">
-        <v>13</v>
-      </c>
-      <c r="P28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="6:16">
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="6:15">
       <c r="F29" t="s">
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I29" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="3">
-        <v>1</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N29" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
     </row>
     <row r="30" spans="6:16">
       <c r="F30" t="s">
         <v>17</v>
       </c>
       <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
-        <v>65</v>
-      </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="3">
-        <v>1</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31" spans="6:16">
       <c r="F31" t="s">
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31">
-        <v>-1</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
+      <c r="L31"/>
+      <c r="M31" s="3"/>
+      <c r="N31"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32" spans="6:16">
       <c r="F32" t="s">
         <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N32">
-        <v>-1</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
+      <c r="L32"/>
+      <c r="M32" s="3"/>
+      <c r="N32"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33" spans="6:16">
       <c r="F33" t="s">
         <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>-1</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
+      <c r="L33"/>
+      <c r="M33" s="3"/>
+      <c r="N33"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34" spans="6:16">
       <c r="F34" t="s">
         <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N34">
-        <v>-1</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
+      <c r="L34"/>
+      <c r="M34" s="3"/>
+      <c r="N34"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35" spans="6:16">
       <c r="F35" t="s">
         <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35">
-        <v>-1</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
+      <c r="L35"/>
+      <c r="M35" s="3"/>
+      <c r="N35"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36" spans="6:16">
       <c r="F36" t="s">
         <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N36">
-        <v>-1</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
+      <c r="L36"/>
+      <c r="M36" s="3"/>
+      <c r="N36"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37" spans="6:16">
       <c r="F37" t="s">
         <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N37">
-        <v>-1</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P37" s="3">
-        <v>0</v>
-      </c>
+      <c r="L37"/>
+      <c r="M37" s="3"/>
+      <c r="N37"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38" spans="6:16">
       <c r="F38" t="s">
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38">
-        <v>1</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N38">
-        <v>-1</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
+      <c r="L38"/>
+      <c r="M38" s="3"/>
+      <c r="N38"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
     <row r="39" ht="16.5" spans="6:16">
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N39">
-        <v>-1</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P39" s="3">
-        <v>0</v>
-      </c>
+      <c r="L39"/>
+      <c r="M39" s="3"/>
+      <c r="N39"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
     </row>
     <row r="40" ht="16.5" spans="6:16">
       <c r="F40" t="s">
         <v>17</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N40">
-        <v>-1</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
+      <c r="L40"/>
+      <c r="M40" s="3"/>
+      <c r="N40"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
     </row>
     <row r="41" ht="16.5" spans="6:16">
       <c r="F41" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41">
-        <v>1</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <v>-1</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
+      <c r="L41"/>
+      <c r="M41" s="3"/>
+      <c r="N41"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
     </row>
     <row r="42" ht="16.5" spans="6:16">
       <c r="F42" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>-1</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
+      <c r="L42"/>
+      <c r="M42" s="3"/>
+      <c r="N42"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
     </row>
     <row r="43" ht="16.5" spans="6:16">
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="L43">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N43">
-        <v>-1</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
-      </c>
+      <c r="L43"/>
+      <c r="M43" s="3"/>
+      <c r="N43"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
     </row>
     <row r="44" ht="16.5" spans="6:16">
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N44">
-        <v>-1</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
+      <c r="L44"/>
+      <c r="M44" s="3"/>
+      <c r="N44"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
     </row>
     <row r="45" ht="16.5" spans="6:16">
       <c r="F45" t="s">
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45">
-        <v>1</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N45">
-        <v>-1</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
+      <c r="L45"/>
+      <c r="M45" s="3"/>
+      <c r="N45"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
     </row>
     <row r="46" ht="16.5" spans="6:16">
       <c r="F46" t="s">
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N46">
-        <v>-1</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
+      <c r="L46"/>
+      <c r="M46" s="3"/>
+      <c r="N46"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
     </row>
     <row r="47" ht="16.5" spans="6:16">
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N47">
-        <v>-1</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
-      </c>
+      <c r="L47"/>
+      <c r="M47" s="3"/>
+      <c r="N47"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
     </row>
     <row r="48" ht="16.5" spans="6:16">
       <c r="F48" t="s">
         <v>17</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N48">
-        <v>-1</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
-      </c>
+      <c r="L48"/>
+      <c r="M48" s="3"/>
+      <c r="N48"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
     </row>
     <row r="49" ht="16.5" spans="6:16">
       <c r="F49" t="s">
         <v>17</v>
       </c>
       <c r="G49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N49">
-        <v>-1</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
+      <c r="L49"/>
+      <c r="M49" s="3"/>
+      <c r="N49"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
     </row>
     <row r="50" ht="16.5" spans="6:16">
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N50">
-        <v>-1</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P50" s="3">
-        <v>0</v>
-      </c>
+      <c r="L50"/>
+      <c r="M50" s="3"/>
+      <c r="N50"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
     </row>
     <row r="51" ht="16.5" spans="6:16">
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K51">
         <v>1</v>
       </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N51">
-        <v>-1</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P51" s="3">
-        <v>0</v>
-      </c>
+      <c r="L51"/>
+      <c r="M51" s="3"/>
+      <c r="N51"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
     </row>
     <row r="52" ht="16.5" spans="6:16">
       <c r="F52" t="s">
         <v>17</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52">
-        <v>1</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N52">
-        <v>-1</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
+      <c r="L52"/>
+      <c r="M52" s="3"/>
+      <c r="N52"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
     </row>
     <row r="53" ht="16.5" spans="6:16">
       <c r="F53" t="s">
         <v>17</v>
       </c>
       <c r="G53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N53">
-        <v>-1</v>
-      </c>
-      <c r="O53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P53" s="3">
-        <v>0</v>
-      </c>
+      <c r="L53"/>
+      <c r="M53" s="3"/>
+      <c r="N53"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
     </row>
     <row r="54" ht="16.5" spans="6:16">
       <c r="F54" t="s">
         <v>17</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54">
-        <v>1</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N54">
-        <v>-1</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
+      <c r="L54"/>
+      <c r="M54" s="3"/>
+      <c r="N54"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
     </row>
     <row r="55" ht="16.5" spans="6:16">
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N55">
-        <v>-1</v>
-      </c>
-      <c r="O55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P55" s="3">
-        <v>0</v>
-      </c>
+      <c r="L55"/>
+      <c r="M55" s="3"/>
+      <c r="N55"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
     </row>
     <row r="56" ht="16.5" spans="6:16">
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N56">
-        <v>-1</v>
-      </c>
-      <c r="O56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P56" s="3">
-        <v>0</v>
-      </c>
+      <c r="L56"/>
+      <c r="M56" s="3"/>
+      <c r="N56"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
     </row>
     <row r="57" ht="16.5" spans="6:16">
       <c r="F57" t="s">
         <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N57">
-        <v>-1</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
+      <c r="L57"/>
+      <c r="M57" s="3"/>
+      <c r="N57"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
     </row>
     <row r="58" ht="16.5" spans="6:16">
       <c r="F58" t="s">
         <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58">
-        <v>1</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N58">
-        <v>-1</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
+      <c r="L58"/>
+      <c r="M58" s="3"/>
+      <c r="N58"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
     </row>
     <row r="59" ht="16.5" spans="6:16">
       <c r="F59" t="s">
         <v>17</v>
       </c>
       <c r="G59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N59">
-        <v>-1</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
-      </c>
+      <c r="L59"/>
+      <c r="M59" s="3"/>
+      <c r="N59"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
     </row>
     <row r="60" ht="16.5" spans="6:16">
       <c r="F60" t="s">
         <v>17</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60">
-        <v>1</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N60">
-        <v>-1</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
+      <c r="L60"/>
+      <c r="M60" s="3"/>
+      <c r="N60"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
     </row>
     <row r="61" ht="16.5" spans="6:16">
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>-1</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
+      <c r="L61"/>
+      <c r="M61" s="3"/>
+      <c r="N61"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
     </row>
     <row r="62" ht="16.5" spans="6:16">
       <c r="F62" t="s">
         <v>17</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62">
-        <v>1</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N62">
-        <v>-1</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
+      <c r="L62"/>
+      <c r="M62" s="3"/>
+      <c r="N62"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
     </row>
     <row r="63" ht="16.5" spans="6:16">
       <c r="F63" t="s">
         <v>17</v>
       </c>
       <c r="G63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N63">
-        <v>-1</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P63" s="3">
-        <v>0</v>
-      </c>
+      <c r="L63"/>
+      <c r="M63" s="3"/>
+      <c r="N63"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
     </row>
     <row r="64" ht="16.5" spans="6:16">
       <c r="F64" t="s">
         <v>17</v>
       </c>
       <c r="G64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N64">
-        <v>-1</v>
-      </c>
-      <c r="O64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P64" s="3">
-        <v>0</v>
-      </c>
+      <c r="L64"/>
+      <c r="M64" s="3"/>
+      <c r="N64"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
     </row>
     <row r="65" ht="16.5" spans="6:16">
       <c r="F65" t="s">
         <v>17</v>
       </c>
       <c r="G65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N65">
-        <v>-1</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P65" s="3">
-        <v>0</v>
-      </c>
+      <c r="L65"/>
+      <c r="M65" s="3"/>
+      <c r="N65"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
     </row>
     <row r="66" ht="16.5" spans="6:16">
       <c r="F66" t="s">
         <v>17</v>
       </c>
       <c r="G66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H66" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N66">
-        <v>-1</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
+      <c r="L66"/>
+      <c r="M66" s="3"/>
+      <c r="N66"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
     </row>
     <row r="67" ht="16.5" spans="6:16">
       <c r="F67" t="s">
         <v>17</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K67">
         <v>1</v>
       </c>
-      <c r="L67">
-        <v>1</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N67">
-        <v>-1</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P67" s="3">
-        <v>0</v>
-      </c>
+      <c r="L67"/>
+      <c r="M67" s="3"/>
+      <c r="N67"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
     </row>
     <row r="68" ht="16.5" spans="6:16">
       <c r="F68" t="s">
         <v>17</v>
       </c>
       <c r="G68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K68">
         <v>1</v>
       </c>
-      <c r="L68">
-        <v>1</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N68">
-        <v>-1</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P68" s="3">
-        <v>0</v>
-      </c>
+      <c r="L68"/>
+      <c r="M68" s="3"/>
+      <c r="N68"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
     </row>
     <row r="69" ht="16.5" spans="6:16">
       <c r="F69" t="s">
         <v>17</v>
       </c>
       <c r="G69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I69" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69">
-        <v>1</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N69">
-        <v>-1</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P69" s="3">
-        <v>0</v>
-      </c>
+      <c r="L69"/>
+      <c r="M69" s="3"/>
+      <c r="N69"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
     </row>
     <row r="70" ht="16.5" spans="6:16">
       <c r="F70" t="s">
         <v>17</v>
       </c>
       <c r="G70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K70">
         <v>1</v>
       </c>
-      <c r="L70">
-        <v>1</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N70">
-        <v>-1</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
+      <c r="L70"/>
+      <c r="M70" s="3"/>
+      <c r="N70"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
     </row>
     <row r="71" ht="16.5" spans="6:16">
       <c r="F71" t="s">
         <v>17</v>
       </c>
       <c r="G71" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H71" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
-      <c r="L71">
-        <v>1</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N71">
-        <v>-1</v>
-      </c>
-      <c r="O71" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P71" s="3">
-        <v>0</v>
-      </c>
+      <c r="L71"/>
+      <c r="M71" s="3"/>
+      <c r="N71"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
     </row>
     <row r="72" ht="16.5" spans="6:16">
       <c r="F72" t="s">
         <v>17</v>
       </c>
       <c r="G72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K72">
         <v>1</v>
       </c>
-      <c r="L72">
-        <v>1</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N72">
-        <v>-1</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
+      <c r="L72"/>
+      <c r="M72" s="3"/>
+      <c r="N72"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
     </row>
     <row r="73" ht="16.5" spans="6:16">
       <c r="F73" t="s">
         <v>17</v>
       </c>
       <c r="G73" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H73" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N73">
-        <v>-1</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P73" s="3">
-        <v>0</v>
-      </c>
+      <c r="L73"/>
+      <c r="M73" s="3"/>
+      <c r="N73"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
     </row>
     <row r="74" ht="16.5" spans="6:16">
       <c r="F74" t="s">
         <v>17</v>
       </c>
       <c r="G74" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K74">
         <v>1</v>
       </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N74">
-        <v>-1</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
+      <c r="L74"/>
+      <c r="M74" s="3"/>
+      <c r="N74"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
     </row>
     <row r="75" ht="16.5" spans="6:16">
       <c r="F75" t="s">
         <v>17</v>
       </c>
       <c r="G75" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H75" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N75">
-        <v>-1</v>
-      </c>
-      <c r="O75" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P75" s="3">
-        <v>0</v>
-      </c>
+      <c r="L75"/>
+      <c r="M75" s="3"/>
+      <c r="N75"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
     </row>
     <row r="76" ht="16.5" spans="6:16">
       <c r="F76" t="s">
         <v>17</v>
       </c>
       <c r="G76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H76" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="K76">
         <v>1</v>
       </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N76">
-        <v>-1</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
+      <c r="L76"/>
+      <c r="M76" s="3"/>
+      <c r="N76"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
     </row>
     <row r="77" ht="16.5" spans="6:16">
       <c r="F77" t="s">
         <v>17</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H77" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N77">
-        <v>-1</v>
-      </c>
-      <c r="O77" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P77" s="3">
-        <v>0</v>
-      </c>
+      <c r="L77"/>
+      <c r="M77" s="3"/>
+      <c r="N77"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
     </row>
     <row r="78" ht="16.5" spans="6:16">
       <c r="F78" t="s">
         <v>17</v>
       </c>
       <c r="G78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78">
-        <v>1</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N78">
-        <v>-1</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
+      <c r="L78"/>
+      <c r="M78" s="3"/>
+      <c r="N78"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
     </row>
     <row r="79" ht="16.5" spans="6:16">
       <c r="F79" t="s">
         <v>17</v>
       </c>
       <c r="G79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I79" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79">
-        <v>1</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N79">
-        <v>-1</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="3">
-        <v>0</v>
-      </c>
+      <c r="L79"/>
+      <c r="M79" s="3"/>
+      <c r="N79"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
     </row>
     <row r="80" ht="16.5" spans="6:16">
       <c r="F80" t="s">
         <v>17</v>
       </c>
       <c r="G80" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80">
-        <v>1</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N80">
-        <v>-1</v>
-      </c>
-      <c r="O80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
+      <c r="L80"/>
+      <c r="M80" s="3"/>
+      <c r="N80"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
     </row>
     <row r="81" ht="16.5" spans="6:16">
       <c r="F81" t="s">
         <v>17</v>
       </c>
       <c r="G81" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H81" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
-      <c r="L81">
-        <v>1</v>
-      </c>
-      <c r="M81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N81">
-        <v>-1</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
+      <c r="L81"/>
+      <c r="M81" s="3"/>
+      <c r="N81"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
     </row>
     <row r="82" ht="16.5" spans="6:16">
       <c r="F82" t="s">
         <v>17</v>
       </c>
       <c r="G82" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="K82">
         <v>1</v>
       </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N82">
-        <v>-1</v>
-      </c>
-      <c r="O82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
+      <c r="L82"/>
+      <c r="M82" s="3"/>
+      <c r="N82"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
     </row>
     <row r="83" ht="16.5" spans="6:16">
       <c r="F83" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K83">
         <v>1</v>
       </c>
-      <c r="L83">
-        <v>1</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N83">
-        <v>-1</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
+      <c r="L83"/>
+      <c r="M83" s="3"/>
+      <c r="N83"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
     </row>
     <row r="84" ht="16.5" spans="6:16">
       <c r="F84" t="s">
         <v>17</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N84">
-        <v>-1</v>
-      </c>
-      <c r="O84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
+      <c r="L84"/>
+      <c r="M84" s="3"/>
+      <c r="N84"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
     </row>
     <row r="85" ht="16.5" spans="6:16">
       <c r="F85" t="s">
         <v>17</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85">
-        <v>1</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N85">
-        <v>-1</v>
-      </c>
-      <c r="O85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P85" s="3">
-        <v>0</v>
-      </c>
+      <c r="L85"/>
+      <c r="M85" s="3"/>
+      <c r="N85"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
     </row>
     <row r="86" ht="16.5" spans="6:16">
       <c r="F86" t="s">
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86">
-        <v>1</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N86">
-        <v>-1</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P86" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" ht="16.5" spans="6:16">
-      <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>58</v>
-      </c>
-      <c r="H87" t="s">
-        <v>190</v>
-      </c>
-      <c r="I87" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="J87" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N87">
-        <v>-1</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P87" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" ht="16.5" spans="6:16">
-      <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>58</v>
-      </c>
-      <c r="H88" t="s">
-        <v>192</v>
-      </c>
-      <c r="I88" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="J88" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1</v>
-      </c>
-      <c r="M88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N88">
-        <v>-1</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P88" s="3">
-        <v>0</v>
-      </c>
+      <c r="L86"/>
+      <c r="M86" s="3"/>
+      <c r="N86"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cloud_afwk.xlsx
+++ b/cloud_afwk.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196">
   <si>
     <t>日期</t>
   </si>
@@ -843,14 +843,41 @@
   <si>
     <t>ESM_ACCOUNT_STATUS_TYPE</t>
   </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE1</t>
+  </si>
+  <si>
+    <t>WITHDRAW1</t>
+  </si>
+  <si>
+    <t>已撤回1</t>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE2</t>
+  </si>
+  <si>
+    <t>WITHDRAW2</t>
+  </si>
+  <si>
+    <t>已撤回2</t>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE3</t>
+  </si>
+  <si>
+    <t>WITHDRAW3</t>
+  </si>
+  <si>
+    <t>已撤回3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -894,6 +921,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
@@ -909,33 +960,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -949,7 +977,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -963,7 +1020,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -984,66 +1071,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1054,13 +1081,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1165,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,37 +1213,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1126,115 +1261,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,6 +1272,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1259,39 +1297,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1322,10 +1327,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1345,151 +1348,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,10 +2190,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P86"/>
+  <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28:P86"/>
+    <sheetView tabSelected="1" topLeftCell="E82" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2521,9 +2548,7 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31"/>
       <c r="M31" s="3"/>
-      <c r="N31"/>
       <c r="O31" s="3"/>
       <c r="P31" s="3"/>
     </row>
@@ -2543,9 +2568,7 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32"/>
       <c r="M32" s="3"/>
-      <c r="N32"/>
       <c r="O32" s="3"/>
       <c r="P32" s="3"/>
     </row>
@@ -2565,9 +2588,7 @@
       <c r="K33">
         <v>1</v>
       </c>
-      <c r="L33"/>
       <c r="M33" s="3"/>
-      <c r="N33"/>
       <c r="O33" s="3"/>
       <c r="P33" s="3"/>
     </row>
@@ -2587,9 +2608,7 @@
       <c r="K34">
         <v>1</v>
       </c>
-      <c r="L34"/>
       <c r="M34" s="3"/>
-      <c r="N34"/>
       <c r="O34" s="3"/>
       <c r="P34" s="3"/>
     </row>
@@ -2609,9 +2628,7 @@
       <c r="K35">
         <v>1</v>
       </c>
-      <c r="L35"/>
       <c r="M35" s="3"/>
-      <c r="N35"/>
       <c r="O35" s="3"/>
       <c r="P35" s="3"/>
     </row>
@@ -2631,9 +2648,7 @@
       <c r="K36">
         <v>1</v>
       </c>
-      <c r="L36"/>
       <c r="M36" s="3"/>
-      <c r="N36"/>
       <c r="O36" s="3"/>
       <c r="P36" s="3"/>
     </row>
@@ -2653,9 +2668,7 @@
       <c r="K37">
         <v>1</v>
       </c>
-      <c r="L37"/>
       <c r="M37" s="3"/>
-      <c r="N37"/>
       <c r="O37" s="3"/>
       <c r="P37" s="3"/>
     </row>
@@ -2675,9 +2688,7 @@
       <c r="K38">
         <v>1</v>
       </c>
-      <c r="L38"/>
       <c r="M38" s="3"/>
-      <c r="N38"/>
       <c r="O38" s="3"/>
       <c r="P38" s="3"/>
     </row>
@@ -2700,9 +2711,7 @@
       <c r="K39">
         <v>1</v>
       </c>
-      <c r="L39"/>
       <c r="M39" s="3"/>
-      <c r="N39"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
     </row>
@@ -2725,9 +2734,7 @@
       <c r="K40">
         <v>1</v>
       </c>
-      <c r="L40"/>
       <c r="M40" s="3"/>
-      <c r="N40"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
     </row>
@@ -2750,9 +2757,7 @@
       <c r="K41">
         <v>1</v>
       </c>
-      <c r="L41"/>
       <c r="M41" s="3"/>
-      <c r="N41"/>
       <c r="O41" s="3"/>
       <c r="P41" s="3"/>
     </row>
@@ -2775,9 +2780,7 @@
       <c r="K42">
         <v>1</v>
       </c>
-      <c r="L42"/>
       <c r="M42" s="3"/>
-      <c r="N42"/>
       <c r="O42" s="3"/>
       <c r="P42" s="3"/>
     </row>
@@ -2800,9 +2803,7 @@
       <c r="K43">
         <v>1</v>
       </c>
-      <c r="L43"/>
       <c r="M43" s="3"/>
-      <c r="N43"/>
       <c r="O43" s="3"/>
       <c r="P43" s="3"/>
     </row>
@@ -2825,9 +2826,7 @@
       <c r="K44">
         <v>1</v>
       </c>
-      <c r="L44"/>
       <c r="M44" s="3"/>
-      <c r="N44"/>
       <c r="O44" s="3"/>
       <c r="P44" s="3"/>
     </row>
@@ -2850,9 +2849,7 @@
       <c r="K45">
         <v>1</v>
       </c>
-      <c r="L45"/>
       <c r="M45" s="3"/>
-      <c r="N45"/>
       <c r="O45" s="3"/>
       <c r="P45" s="3"/>
     </row>
@@ -2875,9 +2872,7 @@
       <c r="K46">
         <v>1</v>
       </c>
-      <c r="L46"/>
       <c r="M46" s="3"/>
-      <c r="N46"/>
       <c r="O46" s="3"/>
       <c r="P46" s="3"/>
     </row>
@@ -2900,9 +2895,7 @@
       <c r="K47">
         <v>1</v>
       </c>
-      <c r="L47"/>
       <c r="M47" s="3"/>
-      <c r="N47"/>
       <c r="O47" s="3"/>
       <c r="P47" s="3"/>
     </row>
@@ -2925,9 +2918,7 @@
       <c r="K48">
         <v>1</v>
       </c>
-      <c r="L48"/>
       <c r="M48" s="3"/>
-      <c r="N48"/>
       <c r="O48" s="3"/>
       <c r="P48" s="3"/>
     </row>
@@ -2950,9 +2941,7 @@
       <c r="K49">
         <v>1</v>
       </c>
-      <c r="L49"/>
       <c r="M49" s="3"/>
-      <c r="N49"/>
       <c r="O49" s="3"/>
       <c r="P49" s="3"/>
     </row>
@@ -2975,9 +2964,7 @@
       <c r="K50">
         <v>1</v>
       </c>
-      <c r="L50"/>
       <c r="M50" s="3"/>
-      <c r="N50"/>
       <c r="O50" s="3"/>
       <c r="P50" s="3"/>
     </row>
@@ -3000,9 +2987,7 @@
       <c r="K51">
         <v>1</v>
       </c>
-      <c r="L51"/>
       <c r="M51" s="3"/>
-      <c r="N51"/>
       <c r="O51" s="3"/>
       <c r="P51" s="3"/>
     </row>
@@ -3025,9 +3010,7 @@
       <c r="K52">
         <v>1</v>
       </c>
-      <c r="L52"/>
       <c r="M52" s="3"/>
-      <c r="N52"/>
       <c r="O52" s="3"/>
       <c r="P52" s="3"/>
     </row>
@@ -3050,9 +3033,7 @@
       <c r="K53">
         <v>1</v>
       </c>
-      <c r="L53"/>
       <c r="M53" s="3"/>
-      <c r="N53"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
     </row>
@@ -3075,9 +3056,7 @@
       <c r="K54">
         <v>1</v>
       </c>
-      <c r="L54"/>
       <c r="M54" s="3"/>
-      <c r="N54"/>
       <c r="O54" s="3"/>
       <c r="P54" s="3"/>
     </row>
@@ -3100,9 +3079,7 @@
       <c r="K55">
         <v>1</v>
       </c>
-      <c r="L55"/>
       <c r="M55" s="3"/>
-      <c r="N55"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
     </row>
@@ -3125,9 +3102,7 @@
       <c r="K56">
         <v>1</v>
       </c>
-      <c r="L56"/>
       <c r="M56" s="3"/>
-      <c r="N56"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
     </row>
@@ -3150,9 +3125,7 @@
       <c r="K57">
         <v>1</v>
       </c>
-      <c r="L57"/>
       <c r="M57" s="3"/>
-      <c r="N57"/>
       <c r="O57" s="3"/>
       <c r="P57" s="3"/>
     </row>
@@ -3175,9 +3148,7 @@
       <c r="K58">
         <v>1</v>
       </c>
-      <c r="L58"/>
       <c r="M58" s="3"/>
-      <c r="N58"/>
       <c r="O58" s="3"/>
       <c r="P58" s="3"/>
     </row>
@@ -3200,9 +3171,7 @@
       <c r="K59">
         <v>1</v>
       </c>
-      <c r="L59"/>
       <c r="M59" s="3"/>
-      <c r="N59"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
     </row>
@@ -3225,9 +3194,7 @@
       <c r="K60">
         <v>1</v>
       </c>
-      <c r="L60"/>
       <c r="M60" s="3"/>
-      <c r="N60"/>
       <c r="O60" s="3"/>
       <c r="P60" s="3"/>
     </row>
@@ -3250,9 +3217,7 @@
       <c r="K61">
         <v>1</v>
       </c>
-      <c r="L61"/>
       <c r="M61" s="3"/>
-      <c r="N61"/>
       <c r="O61" s="3"/>
       <c r="P61" s="3"/>
     </row>
@@ -3275,9 +3240,7 @@
       <c r="K62">
         <v>1</v>
       </c>
-      <c r="L62"/>
       <c r="M62" s="3"/>
-      <c r="N62"/>
       <c r="O62" s="3"/>
       <c r="P62" s="3"/>
     </row>
@@ -3300,9 +3263,7 @@
       <c r="K63">
         <v>1</v>
       </c>
-      <c r="L63"/>
       <c r="M63" s="3"/>
-      <c r="N63"/>
       <c r="O63" s="3"/>
       <c r="P63" s="3"/>
     </row>
@@ -3325,9 +3286,7 @@
       <c r="K64">
         <v>1</v>
       </c>
-      <c r="L64"/>
       <c r="M64" s="3"/>
-      <c r="N64"/>
       <c r="O64" s="3"/>
       <c r="P64" s="3"/>
     </row>
@@ -3350,9 +3309,7 @@
       <c r="K65">
         <v>1</v>
       </c>
-      <c r="L65"/>
       <c r="M65" s="3"/>
-      <c r="N65"/>
       <c r="O65" s="3"/>
       <c r="P65" s="3"/>
     </row>
@@ -3375,9 +3332,7 @@
       <c r="K66">
         <v>1</v>
       </c>
-      <c r="L66"/>
       <c r="M66" s="3"/>
-      <c r="N66"/>
       <c r="O66" s="3"/>
       <c r="P66" s="3"/>
     </row>
@@ -3400,9 +3355,7 @@
       <c r="K67">
         <v>1</v>
       </c>
-      <c r="L67"/>
       <c r="M67" s="3"/>
-      <c r="N67"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
     </row>
@@ -3425,9 +3378,7 @@
       <c r="K68">
         <v>1</v>
       </c>
-      <c r="L68"/>
       <c r="M68" s="3"/>
-      <c r="N68"/>
       <c r="O68" s="3"/>
       <c r="P68" s="3"/>
     </row>
@@ -3450,9 +3401,7 @@
       <c r="K69">
         <v>1</v>
       </c>
-      <c r="L69"/>
       <c r="M69" s="3"/>
-      <c r="N69"/>
       <c r="O69" s="3"/>
       <c r="P69" s="3"/>
     </row>
@@ -3475,9 +3424,7 @@
       <c r="K70">
         <v>1</v>
       </c>
-      <c r="L70"/>
       <c r="M70" s="3"/>
-      <c r="N70"/>
       <c r="O70" s="3"/>
       <c r="P70" s="3"/>
     </row>
@@ -3500,9 +3447,7 @@
       <c r="K71">
         <v>1</v>
       </c>
-      <c r="L71"/>
       <c r="M71" s="3"/>
-      <c r="N71"/>
       <c r="O71" s="3"/>
       <c r="P71" s="3"/>
     </row>
@@ -3525,9 +3470,7 @@
       <c r="K72">
         <v>1</v>
       </c>
-      <c r="L72"/>
       <c r="M72" s="3"/>
-      <c r="N72"/>
       <c r="O72" s="3"/>
       <c r="P72" s="3"/>
     </row>
@@ -3550,9 +3493,7 @@
       <c r="K73">
         <v>1</v>
       </c>
-      <c r="L73"/>
       <c r="M73" s="3"/>
-      <c r="N73"/>
       <c r="O73" s="3"/>
       <c r="P73" s="3"/>
     </row>
@@ -3575,9 +3516,7 @@
       <c r="K74">
         <v>1</v>
       </c>
-      <c r="L74"/>
       <c r="M74" s="3"/>
-      <c r="N74"/>
       <c r="O74" s="3"/>
       <c r="P74" s="3"/>
     </row>
@@ -3600,9 +3539,7 @@
       <c r="K75">
         <v>1</v>
       </c>
-      <c r="L75"/>
       <c r="M75" s="3"/>
-      <c r="N75"/>
       <c r="O75" s="3"/>
       <c r="P75" s="3"/>
     </row>
@@ -3625,9 +3562,7 @@
       <c r="K76">
         <v>1</v>
       </c>
-      <c r="L76"/>
       <c r="M76" s="3"/>
-      <c r="N76"/>
       <c r="O76" s="3"/>
       <c r="P76" s="3"/>
     </row>
@@ -3650,9 +3585,7 @@
       <c r="K77">
         <v>1</v>
       </c>
-      <c r="L77"/>
       <c r="M77" s="3"/>
-      <c r="N77"/>
       <c r="O77" s="3"/>
       <c r="P77" s="3"/>
     </row>
@@ -3675,9 +3608,7 @@
       <c r="K78">
         <v>1</v>
       </c>
-      <c r="L78"/>
       <c r="M78" s="3"/>
-      <c r="N78"/>
       <c r="O78" s="3"/>
       <c r="P78" s="3"/>
     </row>
@@ -3700,9 +3631,7 @@
       <c r="K79">
         <v>1</v>
       </c>
-      <c r="L79"/>
       <c r="M79" s="3"/>
-      <c r="N79"/>
       <c r="O79" s="3"/>
       <c r="P79" s="3"/>
     </row>
@@ -3725,9 +3654,7 @@
       <c r="K80">
         <v>1</v>
       </c>
-      <c r="L80"/>
       <c r="M80" s="3"/>
-      <c r="N80"/>
       <c r="O80" s="3"/>
       <c r="P80" s="3"/>
     </row>
@@ -3750,9 +3677,7 @@
       <c r="K81">
         <v>1</v>
       </c>
-      <c r="L81"/>
       <c r="M81" s="3"/>
-      <c r="N81"/>
       <c r="O81" s="3"/>
       <c r="P81" s="3"/>
     </row>
@@ -3775,9 +3700,7 @@
       <c r="K82">
         <v>1</v>
       </c>
-      <c r="L82"/>
       <c r="M82" s="3"/>
-      <c r="N82"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
     </row>
@@ -3800,9 +3723,7 @@
       <c r="K83">
         <v>1</v>
       </c>
-      <c r="L83"/>
       <c r="M83" s="3"/>
-      <c r="N83"/>
       <c r="O83" s="3"/>
       <c r="P83" s="3"/>
     </row>
@@ -3825,9 +3746,7 @@
       <c r="K84">
         <v>1</v>
       </c>
-      <c r="L84"/>
       <c r="M84" s="3"/>
-      <c r="N84"/>
       <c r="O84" s="3"/>
       <c r="P84" s="3"/>
     </row>
@@ -3850,9 +3769,7 @@
       <c r="K85">
         <v>1</v>
       </c>
-      <c r="L85"/>
       <c r="M85" s="3"/>
-      <c r="N85"/>
       <c r="O85" s="3"/>
       <c r="P85" s="3"/>
     </row>
@@ -3875,11 +3792,69 @@
       <c r="K86">
         <v>1</v>
       </c>
-      <c r="L86"/>
       <c r="M86" s="3"/>
-      <c r="N86"/>
       <c r="O86" s="3"/>
       <c r="P86" s="3"/>
+    </row>
+    <row r="87" ht="16.5" spans="6:11">
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>187</v>
+      </c>
+      <c r="H87" t="s">
+        <v>188</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="J87" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="6:11">
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>190</v>
+      </c>
+      <c r="H88" t="s">
+        <v>191</v>
+      </c>
+      <c r="I88" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="J88" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="6:11">
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>193</v>
+      </c>
+      <c r="H89" t="s">
+        <v>194</v>
+      </c>
+      <c r="I89" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/cloud_afwk.xlsx
+++ b/cloud_afwk.xlsx
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>银行信用评级</t>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE1</t>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE2</t>
+  </si>
+  <si>
+    <t>ESM_ACCOUNT_STATUS_TYPE3</t>
   </si>
   <si>
     <t>sys_lookup_value</t>
@@ -844,25 +853,16 @@
     <t>ESM_ACCOUNT_STATUS_TYPE</t>
   </si>
   <si>
-    <t>ESM_ACCOUNT_STATUS_TYPE1</t>
-  </si>
-  <si>
     <t>WITHDRAW1</t>
   </si>
   <si>
     <t>已撤回1</t>
   </si>
   <si>
-    <t>ESM_ACCOUNT_STATUS_TYPE2</t>
-  </si>
-  <si>
     <t>WITHDRAW2</t>
   </si>
   <si>
     <t>已撤回2</t>
-  </si>
-  <si>
-    <t>ESM_ACCOUNT_STATUS_TYPE3</t>
   </si>
   <si>
     <t>WITHDRAW3</t>
@@ -876,10 +876,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -921,9 +921,82 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -937,24 +1010,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -975,90 +1056,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,13 +1081,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,13 +1099,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,7 +1129,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1129,25 +1159,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1165,19 +1183,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,49 +1237,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,25 +1255,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,17 +1272,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1297,30 +1286,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1349,15 +1314,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1372,151 +1328,195 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2192,8 +2192,8 @@
   <sheetPr/>
   <dimension ref="A1:P89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E82" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2463,12 +2463,54 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
+    <row r="20" spans="6:9">
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9">
+      <c r="F21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9">
+      <c r="F22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="28" spans="5:14">
       <c r="E28" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
         <v>26</v>
@@ -2494,13 +2536,13 @@
         <v>17</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I29" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2515,13 +2557,13 @@
         <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I30" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2537,13 +2579,13 @@
         <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I31" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2560,10 +2602,10 @@
         <v>33</v>
       </c>
       <c r="H32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K32">
         <v>1</v>
@@ -2580,10 +2622,10 @@
         <v>33</v>
       </c>
       <c r="H33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2600,10 +2642,10 @@
         <v>33</v>
       </c>
       <c r="H34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2620,10 +2662,10 @@
         <v>33</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2640,10 +2682,10 @@
         <v>33</v>
       </c>
       <c r="H36" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2660,10 +2702,10 @@
         <v>33</v>
       </c>
       <c r="H37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -2677,13 +2719,13 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -2703,10 +2745,10 @@
         <v>35</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -2723,13 +2765,13 @@
         <v>37</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -2746,13 +2788,13 @@
         <v>37</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -2769,13 +2811,13 @@
         <v>37</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -2792,13 +2834,13 @@
         <v>37</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -2815,13 +2857,13 @@
         <v>39</v>
       </c>
       <c r="H44" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -2838,13 +2880,13 @@
         <v>39</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -2861,13 +2903,13 @@
         <v>39</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -2884,13 +2926,13 @@
         <v>39</v>
       </c>
       <c r="H47" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -2907,13 +2949,13 @@
         <v>39</v>
       </c>
       <c r="H48" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -2930,13 +2972,13 @@
         <v>41</v>
       </c>
       <c r="H49" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -2953,13 +2995,13 @@
         <v>41</v>
       </c>
       <c r="H50" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -2976,13 +3018,13 @@
         <v>41</v>
       </c>
       <c r="H51" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -2999,13 +3041,13 @@
         <v>41</v>
       </c>
       <c r="H52" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3022,13 +3064,13 @@
         <v>41</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3045,13 +3087,13 @@
         <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3068,13 +3110,13 @@
         <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -3091,13 +3133,13 @@
         <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K56">
         <v>1</v>
@@ -3114,13 +3156,13 @@
         <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K57">
         <v>1</v>
@@ -3137,13 +3179,13 @@
         <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K58">
         <v>1</v>
@@ -3160,13 +3202,13 @@
         <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K59">
         <v>1</v>
@@ -3183,13 +3225,13 @@
         <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -3206,13 +3248,13 @@
         <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -3229,13 +3271,13 @@
         <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K62">
         <v>1</v>
@@ -3252,13 +3294,13 @@
         <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -3275,13 +3317,13 @@
         <v>49</v>
       </c>
       <c r="H64" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -3298,13 +3340,13 @@
         <v>49</v>
       </c>
       <c r="H65" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -3321,13 +3363,13 @@
         <v>49</v>
       </c>
       <c r="H66" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K66">
         <v>1</v>
@@ -3344,13 +3386,13 @@
         <v>49</v>
       </c>
       <c r="H67" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="K67">
         <v>1</v>
@@ -3367,13 +3409,13 @@
         <v>49</v>
       </c>
       <c r="H68" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -3390,13 +3432,13 @@
         <v>49</v>
       </c>
       <c r="H69" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="I69" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -3413,13 +3455,13 @@
         <v>49</v>
       </c>
       <c r="H70" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -3436,13 +3478,13 @@
         <v>51</v>
       </c>
       <c r="H71" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="I71" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K71">
         <v>1</v>
@@ -3459,13 +3501,13 @@
         <v>51</v>
       </c>
       <c r="H72" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="I72" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -3482,13 +3524,13 @@
         <v>53</v>
       </c>
       <c r="H73" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -3505,13 +3547,13 @@
         <v>53</v>
       </c>
       <c r="H74" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -3528,13 +3570,13 @@
         <v>53</v>
       </c>
       <c r="H75" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K75">
         <v>1</v>
@@ -3551,13 +3593,13 @@
         <v>53</v>
       </c>
       <c r="H76" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I76" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -3574,13 +3616,13 @@
         <v>53</v>
       </c>
       <c r="H77" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K77">
         <v>1</v>
@@ -3597,13 +3639,13 @@
         <v>53</v>
       </c>
       <c r="H78" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -3620,13 +3662,13 @@
         <v>53</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I79" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -3643,13 +3685,13 @@
         <v>53</v>
       </c>
       <c r="H80" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I80" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K80">
         <v>1</v>
@@ -3666,13 +3708,13 @@
         <v>53</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I81" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="K81">
         <v>1</v>
@@ -3689,13 +3731,13 @@
         <v>53</v>
       </c>
       <c r="H82" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I82" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K82">
         <v>1</v>
@@ -3712,13 +3754,13 @@
         <v>55</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K83">
         <v>1</v>
@@ -3735,13 +3777,13 @@
         <v>55</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K84">
         <v>1</v>
@@ -3758,13 +3800,13 @@
         <v>55</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -3778,16 +3820,16 @@
         <v>17</v>
       </c>
       <c r="G86" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H86" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K86">
         <v>1</v>
@@ -3801,16 +3843,16 @@
         <v>17</v>
       </c>
       <c r="G87" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
       <c r="H87" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I87" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -3821,16 +3863,16 @@
         <v>17</v>
       </c>
       <c r="G88" t="s">
-        <v>190</v>
+        <v>58</v>
       </c>
       <c r="H88" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I88" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -3841,7 +3883,7 @@
         <v>17</v>
       </c>
       <c r="G89" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="H89" t="s">
         <v>194</v>
